--- a/literature-review/assets/excel.xlsx
+++ b/literature-review/assets/excel.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\partsjoo\Desktop\thesis\literature-review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\partsjoo\Desktop\thesis\literature-review\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23532228-C597-4830-9539-2EB4B47560E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEAA3F7-FA1C-4C14-9CAD-569046039632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24684" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$27:$T$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>telepresence</t>
   </si>
@@ -165,13 +168,203 @@
   </si>
   <si>
     <t>Articles, Reports, Conference Proceedings, Datasets</t>
+  </si>
+  <si>
+    <t>Study name</t>
+  </si>
+  <si>
+    <t>Level of evidence</t>
+  </si>
+  <si>
+    <t>Outcome measures</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>("All Metadata":telepresence) OR ("All Metadata":robots) OR ("All Metadata":cybersecurity) OR ("All Metadata":education) OR ("All Metadata":risks)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>IEEExplore</t>
+  </si>
+  <si>
+    <t>Date queried</t>
+  </si>
+  <si>
+    <t>BETWEEN 2023 AND 2018</t>
+  </si>
+  <si>
+    <t>BETWEEN 2023 AND 2013</t>
+  </si>
+  <si>
+    <t>Reports, Journals, Experiments, Datasets</t>
+  </si>
+  <si>
+    <t>Articles, Conference Proceedings, Whitepapers</t>
+  </si>
+  <si>
+    <t>Langugage</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>English, Estonian</t>
+  </si>
+  <si>
+    <t>Primary studies</t>
+  </si>
+  <si>
+    <t>Secondary studies</t>
+  </si>
+  <si>
+    <t>telepresence OR robots OR cybersecurity OR education OR risks</t>
+  </si>
+  <si>
+    <t>Number of studies</t>
+  </si>
+  <si>
+    <t>Filter (date)</t>
+  </si>
+  <si>
+    <t>Filter (type)</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Journals</t>
+  </si>
+  <si>
+    <t>SpringerLink</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Scopus</t>
+  </si>
+  <si>
+    <t>Computer Science, Engineering</t>
+  </si>
+  <si>
+    <t>Social Sciences, Psychology</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>2019-2023</t>
+  </si>
+  <si>
+    <t>Sort by</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE-ABS-KEY ( telepresence  OR  robots  OR  cybersecurity  OR  education  OR  risks )  AND  ( LIMIT-TO ( PUBYEAR ,  2023 )  OR  LIMIT-TO ( PUBYEAR ,  2022 )  OR  LIMIT-TO ( PUBYEAR ,  2021 )  OR  LIMIT-TO ( PUBYEAR ,  2020 )  OR  LIMIT-TO ( PUBYEAR ,  2019 ) )  AND  ( LIMIT-TO ( DOCTYPE ,  "ar" ) )  AND  ( LIMIT-TO ( SUBJAREA ,  "COMP" ) ) </t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Filter (dicipline)</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>The Acceptance of Telepresence Robots in Higher Education</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Publication year</t>
+  </si>
+  <si>
+    <t>Cybsersecurity Issues in Robotics</t>
+  </si>
+  <si>
+    <t>Introducing the Robot Security Framework (RSF), a standardized methodology to perform security assessments in robotics</t>
+  </si>
+  <si>
+    <t>Perceived usefulness of TPRs</t>
+  </si>
+  <si>
+    <t>Methodology to perform security assessments in robotics</t>
+  </si>
+  <si>
+    <t>Robotics cybersecurity and countermeasures</t>
+  </si>
+  <si>
+    <t>Expert opinion based</t>
+  </si>
+  <si>
+    <t>Quasi-random experiment (survey)</t>
+  </si>
+  <si>
+    <t>Perspectives of implementing TPRs</t>
+  </si>
+  <si>
+    <t>Higher education personnel's perceptions about telepresence robots</t>
+  </si>
+  <si>
+    <t>Robotics cyber security: vulnerabilities, attacks, countermeasures, and recommendations</t>
+  </si>
+  <si>
+    <t>Vulnerabilities and security solutions in robotics domain</t>
+  </si>
+  <si>
+    <t>Smart design engineering: a literature review of the impact of the 4th industrial revolution on product design and development</t>
+  </si>
+  <si>
+    <t>Smart design engineering</t>
+  </si>
+  <si>
+    <t>Robot Cybersecurity, a Review</t>
+  </si>
+  <si>
+    <t>Methodology to protect robots</t>
+  </si>
+  <si>
+    <t>Role of Cyber-security in Higher Education</t>
+  </si>
+  <si>
+    <t>Security measures in higher education</t>
+  </si>
+  <si>
+    <t>Telepresence Robots in the Classroom: The State-of-the-Art and a Proposal for a Telepresence Service for Higher Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telepresence services on the higher
+education institutions </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +395,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -236,6 +435,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,61 +723,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D6:L19"/>
+  <dimension ref="C6:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="24.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="14" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="23.109375" style="2" customWidth="1"/>
+    <col min="18" max="20" width="16.5546875" style="2" customWidth="1"/>
+    <col min="21" max="27" width="8.88671875" style="2"/>
+    <col min="28" max="28" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.33203125" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="I6" s="1" t="s">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2">
+      <c r="G7" s="3"/>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>1996</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>1</v>
       </c>
@@ -580,23 +799,23 @@
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>2000</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
         <v>2</v>
       </c>
@@ -606,23 +825,23 @@
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>2004</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D10" s="2">
         <v>3</v>
       </c>
@@ -632,23 +851,23 @@
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>4</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>1997</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
         <v>4</v>
       </c>
@@ -658,23 +877,23 @@
       <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>1998</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <v>5</v>
       </c>
@@ -684,48 +903,49 @@
       <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>6</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>2005</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="H13" s="2">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="2">
         <v>7</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>2004</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <v>1</v>
       </c>
@@ -736,7 +956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D19" s="2">
         <v>2</v>
       </c>
@@ -747,7 +967,553 @@
         <v>42</v>
       </c>
     </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="M20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="M21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="M27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="6">
+        <v>45022</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R28" s="2">
+        <v>57349</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="L29" s="2">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="6">
+        <v>45022</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R29" s="2">
+        <v>61010</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="L30" s="2">
+        <v>3</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" s="6">
+        <v>45022</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" s="2">
+        <v>101267</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="L31" s="2">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="6">
+        <v>45022</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R31" s="2">
+        <v>221674</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="L32" s="2">
+        <v>5</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="6">
+        <v>45022</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1649397</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="L33" s="2">
+        <v>6</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="6">
+        <v>45022</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R33" s="2">
+        <v>7865145</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D47" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D48" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8">
+        <v>2022</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8">
+        <v>2021</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" s="11">
+        <v>5</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8">
+        <v>2021</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="11">
+        <v>5</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="2">
+        <v>4</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" s="11">
+        <v>5</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8">
+        <v>2022</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" s="11">
+        <v>5</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="2">
+        <v>6</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8">
+        <v>2022</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="2">
+        <v>7</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9">
+        <v>2018</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="11">
+        <v>5</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C63" s="2">
+        <v>8</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" s="11">
+        <v>5</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C64" s="2">
+        <v>9</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8">
+        <v>2019</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" s="8">
+        <v>5</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="M27:T27" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M28:T33">
+      <sortCondition ref="R27"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/literature-review/assets/excel.xlsx
+++ b/literature-review/assets/excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\partsjoo\Desktop\thesis\literature-review\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEAA3F7-FA1C-4C14-9CAD-569046039632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6231053-20DC-4351-BB7B-679070C023BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24684" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24468" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$27:$T$27</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="176">
   <si>
     <t>telepresence</t>
   </si>
@@ -170,9 +171,6 @@
     <t>Articles, Reports, Conference Proceedings, Datasets</t>
   </si>
   <si>
-    <t>Study name</t>
-  </si>
-  <si>
     <t>Level of evidence</t>
   </si>
   <si>
@@ -293,9 +291,6 @@
     <t>Primary</t>
   </si>
   <si>
-    <t>4-3</t>
-  </si>
-  <si>
     <t>Secondary</t>
   </si>
   <si>
@@ -356,15 +351,584 @@
     <t>Telepresence Robots in the Classroom: The State-of-the-Art and a Proposal for a Telepresence Service for Higher Education</t>
   </si>
   <si>
-    <t xml:space="preserve">Telepresence services on the higher
-education institutions </t>
+    <t xml:space="preserve">Telepresence services in the higher education institutions </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Conference paper</t>
+  </si>
+  <si>
+    <t>Book chapter</t>
+  </si>
+  <si>
+    <t>Whitepaper</t>
+  </si>
+  <si>
+    <t>telepresence AND cybersecurity OR risks AND assessment AND robots AND education</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>AGGREGATED</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>telepresence AND security</t>
+  </si>
+  <si>
+    <t>web of sience</t>
+  </si>
+  <si>
+    <t>frontiers</t>
+  </si>
+  <si>
+    <t>telepresence cybersecurity</t>
+  </si>
+  <si>
+    <t>telepresence AND cybersecurity AND risks</t>
+  </si>
+  <si>
+    <t>telepresence cybersecurity risks assessment robots education</t>
+  </si>
+  <si>
+    <t>google scholar</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>introduction_to_robot_system_security_2021</t>
+  </si>
+  <si>
+    <t>higher_edu_perception_on_tprs_2022</t>
+  </si>
+  <si>
+    <t>robot_security_framework_2018</t>
+  </si>
+  <si>
+    <t>systematic_review_2004</t>
+  </si>
+  <si>
+    <t>cyber_security_issues_in_robotics_2021</t>
+  </si>
+  <si>
+    <t>robotics_cyber_security_2022</t>
+  </si>
+  <si>
+    <t>smart_design_engineering_2020</t>
+  </si>
+  <si>
+    <t>robot_security_review_2022</t>
+  </si>
+  <si>
+    <t>telepresence_robots_in_classroom_2019</t>
+  </si>
+  <si>
+    <t>cyber_sec_safet_robots_legal_2021</t>
+  </si>
+  <si>
+    <t>cyber_sec_robotics_privacy_safety_2017</t>
+  </si>
+  <si>
+    <t>if_robots_cause_harm_2016</t>
+  </si>
+  <si>
+    <t>analyzing_cyber_physical_threats_2018</t>
+  </si>
+  <si>
+    <t>role_of_security_in_human_robot_2017</t>
+  </si>
+  <si>
+    <t>acceptance_telepresence_robots_2022</t>
+  </si>
+  <si>
+    <t>research gate</t>
+  </si>
+  <si>
+    <t>telepresence AND cyber-physical AND risks AND robots AND compromise AND cybersecurity AND education</t>
+  </si>
+  <si>
+    <t>G- google</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>role_of_cyber_security_in_higher_edu_2020</t>
+  </si>
+  <si>
+    <t>Lei et al.</t>
+  </si>
+  <si>
+    <t>dbir_2022</t>
+  </si>
+  <si>
+    <t>Leoste et al.</t>
+  </si>
+  <si>
+    <t>Vilches et al.</t>
+  </si>
+  <si>
+    <t>Verizon</t>
+  </si>
+  <si>
+    <r>
+      <t>\begin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{enumerate}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">\item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Identification of security risks associated with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{tprs}. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>%1 security risks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">\item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Analysis of existing risk assessment models and their limitations in addressing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{tprs}-specific security challenges. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>%2 risk models</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">\item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Potential security vulnerabilities in robotics, including hardware, software, and network-related issues. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>%3 TRPs vulnerabilities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">\item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Usage of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{tprs} in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{hei}. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>%4 TRPS and EDU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">\item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Examination of studies that highlight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{tprs} security incidents and the effectiveness of implemented countermeasures. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>%5 countermeasures</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">\item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Exploration of future research directions to enhance the security of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{tprs} in higher education and other settings. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>%6 future research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">\item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Investigation of mitigation strategies and best practices to address identified weaknesses in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{tprs} security. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>%7 mitigation strategies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{enumerate}</t>
+    </r>
+  </si>
+  <si>
+    <t>Lacava et al.</t>
+  </si>
+  <si>
+    <t>Yaacoub et al.</t>
+  </si>
+  <si>
+    <t>Pessoa et al.</t>
+  </si>
+  <si>
+    <t>Evidence level</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Mayoral-Vilches</t>
+  </si>
+  <si>
+    <t>Singar et al.</t>
+  </si>
+  <si>
+    <t>Reis et al.</t>
+  </si>
+  <si>
+    <t>Zhu et al.</t>
+  </si>
+  <si>
+    <t>Fosch-Villaronga et al.</t>
+  </si>
+  <si>
+    <t>Lera et al.</t>
+  </si>
+  <si>
+    <t>Sabine et al.</t>
+  </si>
+  <si>
+    <t>Ahmad et al.</t>
+  </si>
+  <si>
+    <t>Portugal et al.</t>
+  </si>
+  <si>
+    <t>telepresence_perspective_psychology_educational_2022</t>
+  </si>
+  <si>
+    <t>Virkus et al.</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>ResearchGate</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>Frontier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0;\-0;;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,16 +965,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2B2B2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -418,11 +1044,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -437,14 +1079,90 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -723,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C6:T64"/>
+  <dimension ref="C6:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,8 +1452,8 @@
     <col min="1" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="24.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="50.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="58.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="28.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -969,72 +1687,72 @@
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.3">
       <c r="M20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.3">
       <c r="M21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.3">
@@ -1042,25 +1760,25 @@
         <v>29</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="Q27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="4:20" x14ac:dyDescent="0.3">
@@ -1068,28 +1786,28 @@
         <v>1</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N28" s="6">
         <v>45022</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R28" s="2">
         <v>57349</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.3">
@@ -1097,28 +1815,28 @@
         <v>2</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N29" s="6">
         <v>45022</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R29" s="2">
         <v>61010</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.3">
@@ -1126,28 +1844,28 @@
         <v>3</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N30" s="6">
         <v>45022</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R30" s="2">
         <v>101267</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.3">
@@ -1155,28 +1873,28 @@
         <v>4</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N31" s="6">
         <v>45022</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R31" s="2">
         <v>221674</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.3">
@@ -1184,28 +1902,28 @@
         <v>5</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N32" s="6">
         <v>45022</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R32" s="2">
         <v>1649397</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="4:20" x14ac:dyDescent="0.3">
@@ -1213,28 +1931,28 @@
         <v>6</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N33" s="6">
         <v>45022</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R33" s="2">
         <v>7865145</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="4:20" x14ac:dyDescent="0.3">
@@ -1273,238 +1991,281 @@
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D55" s="8"/>
-      <c r="E55" s="8" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J55" s="8"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C56" s="2">
         <v>1</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8">
+      <c r="D56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="7">
         <v>2022</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>82</v>
+      <c r="F56" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="9">
+        <v>5</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C57" s="2">
         <v>2</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8">
+      <c r="D57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="7">
         <v>2021</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H57" s="11">
+      <c r="F57" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="9">
         <v>5</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>87</v>
+      <c r="H57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C58" s="2">
         <v>3</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8">
-        <v>2021</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" s="11">
+      <c r="D58" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="7">
+        <v>2022</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="9">
         <v>5</v>
       </c>
-      <c r="I58" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>96</v>
+      <c r="H58" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C59" s="2">
         <v>4</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8">
+      <c r="D59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="7">
         <v>2020</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H59" s="11">
+      <c r="F59" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="9">
         <v>5</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>98</v>
+      <c r="H59" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C60" s="2">
         <v>5</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8">
+      <c r="D60" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="7">
         <v>2022</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H60" s="11">
+      <c r="F60" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="9">
         <v>5</v>
       </c>
-      <c r="I60" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>100</v>
+      <c r="H60" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C61" s="2">
         <v>6</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8">
+      <c r="D61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="7">
         <v>2022</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="F61" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="9">
+        <v>5</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C62" s="2">
         <v>7</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="9">
+      <c r="D62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="8">
         <v>2018</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62" s="11">
+      <c r="F62" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="9">
         <v>5</v>
       </c>
-      <c r="I62" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J62" s="8" t="s">
+      <c r="H62" s="7" t="s">
         <v>88</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C63" s="2">
         <v>8</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8">
+      <c r="D63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="7">
         <v>2020</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63" s="11">
+      <c r="F63" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="9">
         <v>5</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H63" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C64" s="2">
         <v>9</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8">
+      <c r="D64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="7">
         <v>2019</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H64" s="8">
+      <c r="F64" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="9">
         <v>5</v>
       </c>
-      <c r="I64" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>104</v>
+      <c r="H64" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F76" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F77" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F78" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F79" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F80" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F81" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F82" s="2">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -1517,4 +2278,3900 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0D8802-FD38-4086-8CB7-921D14407F15}">
+  <dimension ref="F1:AY123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="12.88671875" style="2" customWidth="1"/>
+    <col min="19" max="23" width="8.88671875" style="2"/>
+    <col min="24" max="24" width="12.6640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="23.88671875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="9.5546875" style="2" customWidth="1"/>
+    <col min="28" max="34" width="8.88671875" style="2"/>
+    <col min="35" max="35" width="15.109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="1.77734375" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F4" s="22">
+        <v>2014</v>
+      </c>
+      <c r="G4" s="24">
+        <f>SUM(G21+G36+G51+G66+G82+G99+G114)</f>
+        <v>14</v>
+      </c>
+      <c r="H4" s="24">
+        <f>SUM(H21+H36+H51+H66+H82+H99+H114)</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="24">
+        <f>SUM(I21+I36+I51+I66+I82+I99+I114)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="24">
+        <f>SUM(J21+J36+J51+J66+J82+J99+J114)</f>
+        <v>6</v>
+      </c>
+      <c r="K4" s="24">
+        <f>SUM(K21+K36+K51+K66+K82+K99+K114)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <f>SUM(L21+L36+L51+L66+L82+L99+L114)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="24">
+        <f>SUM(M21+M36+M51+M66+M82+M99+M114)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="24">
+        <f>SUM(N21+N36+N51+N66+N82+N99+N114)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="24">
+        <f>SUM(O21+O36+O51+O66+O82+O99+O114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F5" s="22">
+        <v>2015</v>
+      </c>
+      <c r="G5" s="24">
+        <f>SUM(G22+G37+G52+G67+G83+G100+G115)</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="24">
+        <f>SUM(H22+H37+H52+H67+H83+H100+H115)</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="24">
+        <f>SUM(I22+I37+I52+I67+I83+I100+I115)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
+        <f>SUM(J22+J37+J52+J67+J83+J100+J115)</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="24">
+        <f>SUM(K22+K37+K52+K67+K83+K100+K115)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
+        <f>SUM(L22+L37+L52+L67+L83+L100+L115)</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="24">
+        <f>SUM(M22+M37+M52+M67+M83+M100+M115)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="24">
+        <f>SUM(N22+N37+N52+N67+N83+N100+N115)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="24">
+        <f>SUM(O22+O37+O52+O67+O83+O100+O115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F6" s="22">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="24">
+        <f>SUM(G23+G38+G53+G68+G84+G101+G116)</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="24">
+        <f>SUM(H23+H38+H53+H68+H84+H101+H116)</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="24">
+        <f>SUM(I23+I38+I53+I68+I84+I101+I116)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="24">
+        <f>SUM(J23+J38+J53+J68+J84+J101+J116)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
+        <f>SUM(K23+K38+K53+K68+K84+K101+K116)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
+        <f>SUM(L23+L38+L53+L68+L84+L101+L116)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="24">
+        <f>SUM(M23+M38+M53+M68+M84+M101+M116)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="24">
+        <f>SUM(N23+N38+N53+N68+N84+N101+N116)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <f>SUM(O23+O38+O53+O68+O84+O101+O116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F7" s="22">
+        <v>2017</v>
+      </c>
+      <c r="G7" s="24">
+        <f>SUM(G24+G39+G54+G69+G85+G102+G117)</f>
+        <v>18</v>
+      </c>
+      <c r="H7" s="24">
+        <f>SUM(H24+H39+H54+H69+H85+H102+H117)</f>
+        <v>12</v>
+      </c>
+      <c r="I7" s="24">
+        <f>SUM(I24+I39+I54+I69+I85+I102+I117)</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="24">
+        <f>SUM(J24+J39+J54+J69+J85+J102+J117)</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="24">
+        <f>SUM(K24+K39+K54+K69+K85+K102+K117)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
+        <f>SUM(L24+L39+L54+L69+L85+L102+L117)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="24">
+        <f>SUM(M24+M39+M54+M69+M85+M102+M117)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="24">
+        <f>SUM(N24+N39+N54+N69+N85+N102+N117)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <f>SUM(O24+O39+O54+O69+O85+O102+O117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F8" s="22">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="24">
+        <f>SUM(G25+G40+G55+G70+G86+G103+G118)</f>
+        <v>32</v>
+      </c>
+      <c r="H8" s="24">
+        <f>SUM(H25+H40+H55+H70+H86+H103+H118)</f>
+        <v>22</v>
+      </c>
+      <c r="I8" s="24">
+        <f>SUM(I25+I40+I55+I70+I86+I103+I118)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="24">
+        <f>SUM(J25+J40+J55+J70+J86+J103+J118)</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="24">
+        <f>SUM(K25+K40+K55+K70+K86+K103+K118)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="24">
+        <f>SUM(L25+L40+L55+L70+L86+L103+L118)</f>
+        <v>6</v>
+      </c>
+      <c r="M8" s="24">
+        <f>SUM(M25+M40+M55+M70+M86+M103+M118)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="24">
+        <f>SUM(N25+N40+N55+N70+N86+N103+N118)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="24">
+        <f>SUM(O25+O40+O55+O70+O86+O103+O118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="22">
+        <v>2019</v>
+      </c>
+      <c r="G9" s="24">
+        <f>SUM(G26+G41+G56+G71+G87+G104+G119)</f>
+        <v>63</v>
+      </c>
+      <c r="H9" s="24">
+        <f>SUM(H26+H41+H56+H71+H87+H104+H119)</f>
+        <v>39</v>
+      </c>
+      <c r="I9" s="24">
+        <f>SUM(I26+I41+I56+I71+I87+I104+I119)</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
+        <f>SUM(J26+J41+J56+J71+J87+J104+J119)</f>
+        <v>15</v>
+      </c>
+      <c r="K9" s="24">
+        <f>SUM(K26+K41+K56+K71+K87+K104+K119)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="24">
+        <f>SUM(L26+L41+L56+L71+L87+L104+L119)</f>
+        <v>9</v>
+      </c>
+      <c r="M9" s="24">
+        <f>SUM(M26+M41+M56+M71+M87+M104+M119)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="24">
+        <f>SUM(N26+N41+N56+N71+N87+N104+N119)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <f>SUM(O26+O41+O56+O71+O87+O104+O119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F10" s="22">
+        <v>2020</v>
+      </c>
+      <c r="G10" s="24">
+        <f>SUM(G27+G42+G57+G72+G88+G105+G120)</f>
+        <v>104</v>
+      </c>
+      <c r="H10" s="24">
+        <f>SUM(H27+H42+H57+H72+H88+H105+H120)</f>
+        <v>68</v>
+      </c>
+      <c r="I10" s="24">
+        <f>SUM(I27+I42+I57+I72+I88+I105+I120)</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="24">
+        <f>SUM(J27+J42+J57+J72+J88+J105+J120)</f>
+        <v>16</v>
+      </c>
+      <c r="K10" s="24">
+        <f>SUM(K27+K42+K57+K72+K88+K105+K120)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="24">
+        <f>SUM(L27+L42+L57+L72+L88+L105+L120)</f>
+        <v>20</v>
+      </c>
+      <c r="M10" s="24">
+        <f>SUM(M27+M42+M57+M72+M88+M105+M120)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="24">
+        <f>SUM(N27+N42+N57+N72+N88+N105+N120)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <f>SUM(O27+O42+O57+O72+O88+O105+O120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F11" s="22">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="24">
+        <f>SUM(G28+G43+G58+G73+G89+G106+G121)</f>
+        <v>250</v>
+      </c>
+      <c r="H11" s="24">
+        <f>SUM(H28+H43+H58+H73+H89+H106+H121)</f>
+        <v>122</v>
+      </c>
+      <c r="I11" s="24">
+        <f>SUM(I28+I43+I58+I73+I89+I106+I121)</f>
+        <v>3</v>
+      </c>
+      <c r="J11" s="24">
+        <f>SUM(J28+J43+J58+J73+J89+J106+J121)</f>
+        <v>40</v>
+      </c>
+      <c r="K11" s="24">
+        <f>SUM(K28+K43+K58+K73+K89+K106+K121)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="24">
+        <f>SUM(L28+L43+L58+L73+L89+L106+L121)</f>
+        <v>88</v>
+      </c>
+      <c r="M11" s="24">
+        <f>SUM(M28+M43+M58+M73+M89+M106+M121)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
+        <f>SUM(N28+N43+N58+N73+N89+N106+N121)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="24">
+        <f>SUM(O28+O43+O58+O73+O89+O106+O121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F12" s="22">
+        <v>2022</v>
+      </c>
+      <c r="G12" s="24">
+        <f>SUM(G29+G44+G59+G74+G90+G107+G122)</f>
+        <v>306</v>
+      </c>
+      <c r="H12" s="24">
+        <f>SUM(H29+H44+H59+H74+H90+H107+H122)</f>
+        <v>116</v>
+      </c>
+      <c r="I12" s="24">
+        <f>SUM(I29+I44+I59+I74+I90+I107+I122)</f>
+        <v>5</v>
+      </c>
+      <c r="J12" s="24">
+        <f>SUM(J29+J44+J59+J74+J90+J107+J122)</f>
+        <v>59</v>
+      </c>
+      <c r="K12" s="24">
+        <f>SUM(K29+K44+K59+K74+K90+K107+K122)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
+        <f>SUM(L29+L44+L59+L74+L90+L107+L122)</f>
+        <v>131</v>
+      </c>
+      <c r="M12" s="24">
+        <f>SUM(M29+M44+M59+M74+M90+M107+M122)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="24">
+        <f>SUM(N29+N44+N59+N74+N90+N107+N122)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
+        <f>SUM(O29+O44+O59+O74+O90+O107+O122)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F13" s="22">
+        <v>2023</v>
+      </c>
+      <c r="G13" s="24">
+        <f>SUM(G30+G45+G60+G75+G91+G108+G123)</f>
+        <v>123</v>
+      </c>
+      <c r="H13" s="24">
+        <f>SUM(H30+H45+H60+H75+H91+H108+H123)</f>
+        <v>54</v>
+      </c>
+      <c r="I13" s="24">
+        <f>SUM(I30+I45+I60+I75+I91+I108+I123)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="24">
+        <f>SUM(J30+J45+J60+J75+J91+J108+J123)</f>
+        <v>16</v>
+      </c>
+      <c r="K13" s="24">
+        <f>SUM(K30+K45+K60+K75+K91+K108+K123)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
+        <f>SUM(L30+L45+L60+L75+L91+L108+L123)</f>
+        <v>52</v>
+      </c>
+      <c r="M13" s="24">
+        <f>SUM(M30+M45+M60+M75+M91+M108+M123)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="24">
+        <f>SUM(N30+N45+N60+N75+N91+N108+N123)</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="24">
+        <f>SUM(O30+O45+O60+O75+O91+O108+O123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="24">
+        <f>SUM(G4:G13)</f>
+        <v>927</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" ref="H14:O14" si="0">SUM(H4:H13)</f>
+        <v>450</v>
+      </c>
+      <c r="I14" s="24">
+        <f>SUM(I4:I13)</f>
+        <v>15</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="K14" s="24">
+        <f>SUM(K4:K13)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="M14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="24">
+        <f>SUM(N4:N13)</f>
+        <v>2</v>
+      </c>
+      <c r="O14" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+    </row>
+    <row r="18" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F21" s="17">
+        <v>2014</v>
+      </c>
+      <c r="G21" s="17">
+        <f>SUM(H21+J21+L21+N21)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17">
+        <v>1</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F22" s="17">
+        <v>2015</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" ref="G22:G30" si="1">SUM(H22+J22+L22+N22)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17">
+        <v>1</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F23" s="17">
+        <v>2016</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17">
+        <v>1</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="AC23" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="37"/>
+      <c r="AS23" s="37"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="37"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+    </row>
+    <row r="24" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F24" s="17">
+        <v>2017</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17">
+        <v>1</v>
+      </c>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="AB24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+    </row>
+    <row r="25" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F25" s="17">
+        <v>2018</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17">
+        <v>1</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17">
+        <v>6</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17">
+        <v>1</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="AB25" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="37"/>
+      <c r="AQ25" s="37"/>
+      <c r="AR25" s="37"/>
+      <c r="AS25" s="37"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+    </row>
+    <row r="26" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F26" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
+        <v>3</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17">
+        <v>9</v>
+      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="AB26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+    </row>
+    <row r="27" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F27" s="17">
+        <v>2020</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H27" s="17">
+        <v>3</v>
+      </c>
+      <c r="I27" s="17">
+        <v>2</v>
+      </c>
+      <c r="J27" s="17">
+        <v>12</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17">
+        <v>20</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="AB27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="37"/>
+      <c r="AQ27" s="37"/>
+      <c r="AR27" s="37"/>
+      <c r="AS27" s="37"/>
+      <c r="AT27" s="37"/>
+      <c r="AU27" s="37"/>
+      <c r="AV27" s="37"/>
+      <c r="AW27" s="37"/>
+      <c r="AX27" s="37"/>
+      <c r="AY27" s="37"/>
+    </row>
+    <row r="28" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F28" s="17">
+        <v>2021</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="H28" s="17">
+        <v>3</v>
+      </c>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17">
+        <v>35</v>
+      </c>
+      <c r="K28" s="17">
+        <v>1</v>
+      </c>
+      <c r="L28" s="17">
+        <v>87</v>
+      </c>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="AB28" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC28" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+    </row>
+    <row r="29" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F29" s="17">
+        <v>2022</v>
+      </c>
+      <c r="G29" s="17">
+        <f>SUM(H29+J29+L29+N29)</f>
+        <v>180</v>
+      </c>
+      <c r="H29" s="17">
+        <v>4</v>
+      </c>
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
+        <v>45</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17">
+        <v>131</v>
+      </c>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="AB29" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC29" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+    </row>
+    <row r="30" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F30" s="17">
+        <v>2023</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H30" s="17">
+        <v>8</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17">
+        <v>15</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17">
+        <v>52</v>
+      </c>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="AB30" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC30" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AP30" s="37"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
+      <c r="AW30" s="37"/>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+    </row>
+    <row r="31" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="AC31" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AP31" s="37"/>
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AS31" s="37"/>
+      <c r="AT31" s="37"/>
+      <c r="AU31" s="37"/>
+      <c r="AV31" s="37"/>
+      <c r="AW31" s="37"/>
+      <c r="AX31" s="37"/>
+      <c r="AY31" s="37"/>
+    </row>
+    <row r="32" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F32" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
+      <c r="AT32" s="40"/>
+      <c r="AU32" s="40"/>
+      <c r="AV32" s="40"/>
+      <c r="AW32" s="40"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="40"/>
+    </row>
+    <row r="33" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="S33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="40"/>
+      <c r="AU33" s="40"/>
+      <c r="AV33" s="40"/>
+      <c r="AW33" s="40"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="40"/>
+    </row>
+    <row r="34" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA35" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="14">
+        <v>4</v>
+      </c>
+      <c r="AF35" s="14">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="14">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F36" s="17">
+        <v>2014</v>
+      </c>
+      <c r="G36" s="17">
+        <f>SUM(H36+J36+L36+N36)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="Q36" s="2">
+        <v>1</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S36" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI36" s="2" t="str">
+        <f>IF(AA36="y"," $^{\ast}$ &amp; "," &amp; ")</f>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK36" s="2" t="str">
+        <f>Q36&amp;AI36&amp;RIGHT(S36,4)&amp;" &amp; "&amp;Y36&amp;""&amp;"~\cite[]{"&amp;S36&amp;"}"&amp;" &amp; "&amp;AB36&amp;" &amp; "&amp;AC36&amp;" &amp; "&amp;AD36&amp;" &amp; "&amp;AE36&amp;" &amp; "&amp;AF36&amp;" &amp; "&amp;AG36&amp;" &amp; "&amp;AH36&amp;" \\\hline"</f>
+        <v>1 &amp; 2021 &amp; Zhu et al.~\cite[]{introduction_to_robot_system_security_2021} &amp; X &amp; X &amp;  &amp;  &amp; X &amp;  &amp; X \\\hline</v>
+      </c>
+    </row>
+    <row r="37" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F37" s="17">
+        <v>2015</v>
+      </c>
+      <c r="G37" s="17">
+        <f t="shared" ref="G37:G45" si="2">SUM(H37+J37+L37+N37)</f>
+        <v>2</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17">
+        <v>2</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="Q37" s="2">
+        <v>2</v>
+      </c>
+      <c r="R37" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S37" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC37" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI37" s="2" t="str">
+        <f t="shared" ref="AI37:AI73" si="3">IF(AA37="y"," $^{\ast}$ &amp; "," &amp; ")</f>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK37" s="2" t="str">
+        <f t="shared" ref="AK37:AK70" si="4">Q37&amp;AI37&amp;RIGHT(S37,4)&amp;" &amp; "&amp;Y37&amp;""&amp;"~\cite[]{"&amp;S37&amp;"}"&amp;" &amp; "&amp;AB37&amp;" &amp; "&amp;AC37&amp;" &amp; "&amp;AD37&amp;" &amp; "&amp;AE37&amp;" &amp; "&amp;AF37&amp;" &amp; "&amp;AG37&amp;" &amp; "&amp;AH37&amp;" \\\hline"</f>
+        <v>2 &amp; 2021 &amp; Fosch-Villaronga et al.~\cite[]{cyber_sec_safet_robots_legal_2021} &amp; X &amp; X &amp;  &amp;  &amp;  &amp;  &amp; X \\\hline</v>
+      </c>
+    </row>
+    <row r="38" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F38" s="17">
+        <v>2016</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="Q38" s="2">
+        <v>3</v>
+      </c>
+      <c r="R38" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S38" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>3 &amp; 2022 &amp; Verizon~\cite[]{dbir_2022} &amp;  &amp;  &amp;  &amp;  &amp;  &amp; X &amp; X \\\hline</v>
+      </c>
+    </row>
+    <row r="39" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F39" s="17">
+        <v>2017</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="17">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1</v>
+      </c>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="Q39" s="2">
+        <v>4</v>
+      </c>
+      <c r="R39" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>4 &amp; 2021 &amp; Lacava et al.~\cite[]{cyber_security_issues_in_robotics_2021} &amp; X &amp;  &amp;  &amp;  &amp;  &amp; X &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="40" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F40" s="17">
+        <v>2018</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H40" s="17">
+        <v>2</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="Q40" s="2">
+        <v>5</v>
+      </c>
+      <c r="R40" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S40" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>5 &amp; 2022 &amp; Yaacoub et al.~\cite[]{robotics_cyber_security_2022} &amp; X &amp; X &amp; X &amp;  &amp; X &amp; X &amp; X \\\hline</v>
+      </c>
+    </row>
+    <row r="41" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F41" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17">
+        <v>2</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="Q41" s="2">
+        <v>6</v>
+      </c>
+      <c r="R41" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S41" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG41" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>6 &amp; 2020 &amp; Pessoa et al.~\cite[]{smart_design_engineering_2020} &amp;  &amp;  &amp;  &amp;  &amp; X &amp; X &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="42" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F42" s="17">
+        <v>2020</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="Q42" s="2">
+        <v>7</v>
+      </c>
+      <c r="R42" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="S42" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>7 $^{\ast}$ &amp; 2017 &amp; Lera et al.~\cite[]{cyber_sec_robotics_privacy_safety_2017} &amp; X &amp; X &amp; X &amp;  &amp;  &amp; X &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="43" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F43" s="17">
+        <v>2021</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H43" s="17">
+        <v>2</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17">
+        <v>1</v>
+      </c>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="Q43" s="2">
+        <v>8</v>
+      </c>
+      <c r="R43" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="S43" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>8 $^{\ast}$ &amp; 2016 &amp; Sabine et al.~\cite[]{if_robots_cause_harm_2016} &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="44" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F44" s="17">
+        <v>2022</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H44" s="17">
+        <v>2</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17">
+        <v>5</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="Q44" s="2">
+        <v>9</v>
+      </c>
+      <c r="R44" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="S44" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB44" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC44" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD44" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE44" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>9 $^{\ast}$ &amp; 2018 &amp; Ahmad et al.~\cite[]{analyzing_cyber_physical_threats_2018} &amp; X &amp; X &amp; X &amp; X &amp;  &amp;  &amp; X \\\hline</v>
+      </c>
+    </row>
+    <row r="45" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F45" s="17">
+        <v>2023</v>
+      </c>
+      <c r="G45" s="17">
+        <f>SUM(H45+J45+L45+N45)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="Q45" s="2">
+        <v>10</v>
+      </c>
+      <c r="R45" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="S45" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z45" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10 $^{\ast}$ &amp; 2017 &amp; Portugal et al.~\cite[]{role_of_security_in_human_robot_2017} &amp; X &amp;  &amp; X &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="46" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="Q46" s="2">
+        <v>11</v>
+      </c>
+      <c r="R46" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="S46" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z46" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>11 $^{\ast}$ &amp; 2022 &amp; Lei et al.~\cite[]{acceptance_telepresence_robots_2022} &amp; X &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="47" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="Q47" s="2">
+        <v>12</v>
+      </c>
+      <c r="R47" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="S47" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z47" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>12 $^{\ast}$ &amp; 2022 &amp; Leoste et al.~\cite[]{higher_edu_perception_on_tprs_2022} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="48" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="F48" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="Q48" s="2">
+        <v>13</v>
+      </c>
+      <c r="R48" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S48" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z48" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB48" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC48" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>13 $^{\ast}$ &amp; 2018 &amp; Vilches et al.~\cite[]{robot_security_framework_2018} &amp; X &amp; X &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="49" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O49" s="15"/>
+      <c r="Q49" s="2">
+        <v>14</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S49" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z49" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>14 $^{\ast}$ &amp; 2022 &amp; Mayoral-Vilches~\cite[]{robot_security_review_2022} &amp;  &amp;  &amp; X &amp;  &amp; X &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="50" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F50" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>15</v>
+      </c>
+      <c r="R50" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S50" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>15 $^{\ast}$ &amp; 2020 &amp; Singar et al.~\cite[]{role_of_cyber_security_in_higher_edu_2020} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp; X \\\hline</v>
+      </c>
+    </row>
+    <row r="51" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F51" s="17">
+        <v>2014</v>
+      </c>
+      <c r="G51" s="17">
+        <f>SUM(H51+J51+L51+N51)</f>
+        <v>8</v>
+      </c>
+      <c r="H51" s="17">
+        <v>2</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17">
+        <v>6</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="Q51" s="2">
+        <v>16</v>
+      </c>
+      <c r="R51" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S51" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>16 $^{\ast}$ &amp; 2019 &amp; Reis et al.~\cite[]{telepresence_robots_in_classroom_2019} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="52" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F52" s="17">
+        <v>2015</v>
+      </c>
+      <c r="G52" s="17">
+        <f t="shared" ref="G52:G60" si="5">SUM(H52+J52+L52+N52)</f>
+        <v>3</v>
+      </c>
+      <c r="H52" s="17">
+        <v>1</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17">
+        <v>1</v>
+      </c>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17">
+        <v>1</v>
+      </c>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="Q52" s="2">
+        <v>17</v>
+      </c>
+      <c r="R52" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+      </c>
+      <c r="AK52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>17 $^{\ast}$ &amp; 2022 &amp; Virkus et al.~\cite[]{telepresence_perspective_psychology_educational_2022} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="53" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F53" s="17">
+        <v>2016</v>
+      </c>
+      <c r="G53" s="17">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H53" s="17">
+        <v>2</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="Q53" s="2">
+        <v>18</v>
+      </c>
+      <c r="AI53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>18 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="54" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F54" s="17">
+        <v>2017</v>
+      </c>
+      <c r="G54" s="17">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H54" s="17">
+        <v>4</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17">
+        <v>4</v>
+      </c>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="Q54" s="2">
+        <v>19</v>
+      </c>
+      <c r="AI54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>19 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="55" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F55" s="17">
+        <v>2018</v>
+      </c>
+      <c r="G55" s="17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H55" s="17">
+        <v>2</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17">
+        <v>1</v>
+      </c>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="Q55" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK55" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="56" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F56" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G56" s="17">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H56" s="17">
+        <v>2</v>
+      </c>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17">
+        <v>5</v>
+      </c>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="Q56" s="2">
+        <v>21</v>
+      </c>
+      <c r="AI56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK56" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>21 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="57" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F57" s="17">
+        <v>2020</v>
+      </c>
+      <c r="G57" s="17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H57" s="17">
+        <v>5</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17">
+        <v>1</v>
+      </c>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="Q57" s="2">
+        <v>22</v>
+      </c>
+      <c r="AI57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK57" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>22 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="58" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F58" s="17">
+        <v>2021</v>
+      </c>
+      <c r="G58" s="17">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H58" s="17">
+        <v>6</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17">
+        <v>2</v>
+      </c>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="AI58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK58" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="59" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F59" s="17">
+        <v>2022</v>
+      </c>
+      <c r="G59" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H59" s="17">
+        <v>6</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17">
+        <v>4</v>
+      </c>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="AI59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK59" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="60" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F60" s="17">
+        <v>2023</v>
+      </c>
+      <c r="G60" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17">
+        <v>1</v>
+      </c>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="AI60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK60" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="61" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="AI61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK61" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="62" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="AI62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK62" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="63" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F63" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="AI63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="64" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O64" s="15"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="AI64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK64" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="65" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F65" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O65" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="25"/>
+      <c r="X65" s="25"/>
+      <c r="AI65" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK65" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="66" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F66" s="17">
+        <v>2014</v>
+      </c>
+      <c r="G66" s="17">
+        <f>SUM(H66+J66+L66+N66)</f>
+        <v>3</v>
+      </c>
+      <c r="H66" s="17">
+        <v>2</v>
+      </c>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17">
+        <v>1</v>
+      </c>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="R66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S66" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="AI66" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK66" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp; 2004 &amp; ~\cite[]{systematic_review_2004} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="67" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F67" s="17">
+        <v>2015</v>
+      </c>
+      <c r="G67" s="17">
+        <f t="shared" ref="G67:G75" si="6">SUM(H67+J67+L67+N67)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="AI67" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="68" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F68" s="17">
+        <v>2016</v>
+      </c>
+      <c r="G68" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="25"/>
+      <c r="AI68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK68" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="69" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F69" s="17">
+        <v>2017</v>
+      </c>
+      <c r="G69" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H69" s="17">
+        <v>1</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17">
+        <v>1</v>
+      </c>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="AI69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK69" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="70" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F70" s="17">
+        <v>2018</v>
+      </c>
+      <c r="G70" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H70" s="17">
+        <v>1</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17">
+        <v>1</v>
+      </c>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="AI70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK70" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="71" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F71" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G71" s="17">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="H71" s="17">
+        <v>7</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17">
+        <v>5</v>
+      </c>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
+      <c r="X71" s="25"/>
+      <c r="AI71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK71" s="2" t="str">
+        <f t="shared" ref="AK37:AK74" si="7">Q71&amp;AI71&amp;RIGHT(S71,4)&amp;" &amp; "&amp;Y71&amp;""&amp;"~\cite[]{"&amp;S71&amp;"}"&amp;" &amp; "&amp;AB71&amp;" &amp; "&amp;AC71&amp;" &amp; "&amp;AD71&amp;" &amp; "&amp;AE71&amp;" &amp; "&amp;AF71&amp;" &amp; "&amp;AG71&amp;" &amp; "&amp;AH71&amp;" \\\hline"</f>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="72" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F72" s="17">
+        <v>2020</v>
+      </c>
+      <c r="G72" s="17">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H72" s="17">
+        <v>5</v>
+      </c>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17">
+        <v>3</v>
+      </c>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="25"/>
+      <c r="X72" s="25"/>
+      <c r="AI72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK72" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="73" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F73" s="17">
+        <v>2021</v>
+      </c>
+      <c r="G73" s="17">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="H73" s="17">
+        <v>9</v>
+      </c>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17">
+        <v>2</v>
+      </c>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17">
+        <v>1</v>
+      </c>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="25"/>
+      <c r="W73" s="25"/>
+      <c r="X73" s="25"/>
+      <c r="AI73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK73" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="74" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F74" s="17">
+        <v>2022</v>
+      </c>
+      <c r="G74" s="17">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="H74" s="17">
+        <v>14</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17">
+        <v>5</v>
+      </c>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="25"/>
+      <c r="W74" s="25"/>
+      <c r="X74" s="25"/>
+      <c r="AK74" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="75" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F75" s="17">
+        <v>2023</v>
+      </c>
+      <c r="G75" s="17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H75" s="17">
+        <v>2</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17">
+        <v>1</v>
+      </c>
+      <c r="O75" s="17"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+    </row>
+    <row r="76" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="25"/>
+      <c r="W76" s="25"/>
+      <c r="X76" s="25"/>
+    </row>
+    <row r="77" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="25"/>
+      <c r="V77" s="25"/>
+      <c r="W77" s="25"/>
+      <c r="X77" s="25"/>
+    </row>
+    <row r="78" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+    </row>
+    <row r="79" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F79" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+    </row>
+    <row r="80" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O80" s="15"/>
+    </row>
+    <row r="81" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F81" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N81" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O81" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F82" s="17">
+        <v>2014</v>
+      </c>
+      <c r="G82" s="17">
+        <f>SUM(H82+J82+L82+N82)</f>
+        <v>2</v>
+      </c>
+      <c r="H82" s="17">
+        <v>2</v>
+      </c>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+    </row>
+    <row r="83" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F83" s="17">
+        <v>2015</v>
+      </c>
+      <c r="G83" s="17">
+        <f t="shared" ref="G82:G91" si="8">SUM(H83+J83+L83+N83)</f>
+        <v>4</v>
+      </c>
+      <c r="H83" s="17">
+        <v>4</v>
+      </c>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+    </row>
+    <row r="84" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F84" s="17">
+        <v>2016</v>
+      </c>
+      <c r="G84" s="17">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H84" s="17">
+        <v>3</v>
+      </c>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+    </row>
+    <row r="85" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F85" s="17">
+        <v>2017</v>
+      </c>
+      <c r="G85" s="17">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H85" s="17">
+        <v>6</v>
+      </c>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+    </row>
+    <row r="86" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F86" s="17">
+        <v>2018</v>
+      </c>
+      <c r="G86" s="17">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H86" s="17">
+        <v>14</v>
+      </c>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+    </row>
+    <row r="87" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F87" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G87" s="17">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="H87" s="17">
+        <v>27</v>
+      </c>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+    </row>
+    <row r="88" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F88" s="17">
+        <v>2020</v>
+      </c>
+      <c r="G88" s="17">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="H88" s="17">
+        <v>47</v>
+      </c>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+    </row>
+    <row r="89" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F89" s="17">
+        <v>2021</v>
+      </c>
+      <c r="G89" s="17">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="H89" s="17">
+        <v>69</v>
+      </c>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+    </row>
+    <row r="90" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F90" s="17">
+        <v>2022</v>
+      </c>
+      <c r="G90" s="17">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="H90" s="17">
+        <v>63</v>
+      </c>
+      <c r="I90" s="17">
+        <v>2</v>
+      </c>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+    </row>
+    <row r="91" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F91" s="17">
+        <v>2023</v>
+      </c>
+      <c r="G91" s="17">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H91" s="17">
+        <v>20</v>
+      </c>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+    </row>
+    <row r="95" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+    </row>
+    <row r="96" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F96" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+    </row>
+    <row r="97" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O97" s="15"/>
+    </row>
+    <row r="98" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F98" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L98" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M98" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N98" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O98" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F99" s="17">
+        <v>2014</v>
+      </c>
+      <c r="G99" s="17">
+        <f>SUM(H99+J99+L99+N99)</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+    </row>
+    <row r="100" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F100" s="17">
+        <v>2015</v>
+      </c>
+      <c r="G100" s="17">
+        <f t="shared" ref="G100:G108" si="9">SUM(H100+J100+L100+N100)</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+    </row>
+    <row r="101" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F101" s="17">
+        <v>2016</v>
+      </c>
+      <c r="G101" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+    </row>
+    <row r="102" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F102" s="17">
+        <v>2017</v>
+      </c>
+      <c r="G102" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+    </row>
+    <row r="103" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F103" s="17">
+        <v>2018</v>
+      </c>
+      <c r="G103" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+    </row>
+    <row r="104" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F104" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G104" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+    </row>
+    <row r="105" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F105" s="17">
+        <v>2020</v>
+      </c>
+      <c r="G105" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+    </row>
+    <row r="106" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F106" s="17">
+        <v>2021</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H106" s="17">
+        <v>2</v>
+      </c>
+      <c r="I106" s="17">
+        <v>2</v>
+      </c>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+    </row>
+    <row r="107" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F107" s="17">
+        <v>2022</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H107" s="17">
+        <v>3</v>
+      </c>
+      <c r="I107" s="17">
+        <v>2</v>
+      </c>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F108" s="17">
+        <v>2023</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+    </row>
+    <row r="110" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+    </row>
+    <row r="111" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F111" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+    </row>
+    <row r="112" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O112" s="15"/>
+    </row>
+    <row r="113" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F113" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I113" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J113" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K113" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L113" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M113" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N113" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O113" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F114" s="17">
+        <v>2014</v>
+      </c>
+      <c r="G114" s="17">
+        <f>SUM(H114+J114+L114+N114)</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+    </row>
+    <row r="115" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F115" s="17">
+        <v>2015</v>
+      </c>
+      <c r="G115" s="17">
+        <f t="shared" ref="G115:G123" si="10">SUM(H115+J115+L115+N115)</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+    </row>
+    <row r="116" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F116" s="17">
+        <v>2016</v>
+      </c>
+      <c r="G116" s="17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H116" s="17">
+        <v>1</v>
+      </c>
+      <c r="I116" s="17">
+        <v>1</v>
+      </c>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+    </row>
+    <row r="117" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F117" s="17">
+        <v>2017</v>
+      </c>
+      <c r="G117" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17">
+        <v>1</v>
+      </c>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+    </row>
+    <row r="118" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F118" s="17">
+        <v>2018</v>
+      </c>
+      <c r="G118" s="17">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H118" s="17">
+        <v>3</v>
+      </c>
+      <c r="I118" s="17">
+        <v>1</v>
+      </c>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+    </row>
+    <row r="119" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F119" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G119" s="17">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H119" s="17">
+        <v>3</v>
+      </c>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+    </row>
+    <row r="120" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F120" s="17">
+        <v>2020</v>
+      </c>
+      <c r="G120" s="17">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="H120" s="17">
+        <v>8</v>
+      </c>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+    </row>
+    <row r="121" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F121" s="17">
+        <v>2021</v>
+      </c>
+      <c r="G121" s="17">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="H121" s="17">
+        <v>31</v>
+      </c>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+    </row>
+    <row r="122" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F122" s="17">
+        <v>2022</v>
+      </c>
+      <c r="G122" s="17">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="H122" s="17">
+        <v>24</v>
+      </c>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+    </row>
+    <row r="123" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F123" s="17">
+        <v>2023</v>
+      </c>
+      <c r="G123" s="17">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="H123" s="17">
+        <v>24</v>
+      </c>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{62024993-0124-44E3-B263-5C8134F4ED60}"/>
+    <hyperlink ref="F18" r:id="rId2" xr:uid="{B109D22F-7300-4FDF-B9A9-E1EFB0260F22}"/>
+    <hyperlink ref="F48" r:id="rId3" xr:uid="{EF7C1D30-578C-4045-AD00-5D4B8BEAD7AC}"/>
+    <hyperlink ref="F63" r:id="rId4" xr:uid="{C0421887-14B0-4B61-8AA5-A2014849ADAF}"/>
+    <hyperlink ref="F79" r:id="rId5" xr:uid="{7B485F9E-4ABB-4422-B0F3-85A717F4192B}"/>
+    <hyperlink ref="F96" r:id="rId6" xr:uid="{30F4DD40-14C8-4CDD-A1D4-2073D128A554}"/>
+    <hyperlink ref="F111" r:id="rId7" xr:uid="{35A28538-0870-4B01-92BC-06B3453DC03D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+</worksheet>
 </file>
--- a/literature-review/assets/excel.xlsx
+++ b/literature-review/assets/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\partsjoo\Desktop\thesis\literature-review\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6231053-20DC-4351-BB7B-679070C023BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035DA672-F719-44B6-9091-D149D91B5EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24468" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="180">
   <si>
     <t>telepresence</t>
   </si>
@@ -457,9 +457,6 @@
   </si>
   <si>
     <t>telepresence AND cyber-physical AND risks AND robots AND compromise AND cybersecurity AND education</t>
-  </si>
-  <si>
-    <t>G- google</t>
   </si>
   <si>
     <t>web</t>
@@ -919,6 +916,21 @@
   </si>
   <si>
     <t>Frontier</t>
+  </si>
+  <si>
+    <t>cyber_sec_safety_robots_legal_2021</t>
+  </si>
+  <si>
+    <t>Villaronga et al.</t>
+  </si>
+  <si>
+    <t>humans_and_robots_relation_2021</t>
+  </si>
+  <si>
+    <t>Gupta et al.</t>
+  </si>
+  <si>
+    <t>in list of pdf?</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1132,20 +1144,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1160,6 +1167,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2285,7 +2306,7 @@
   <dimension ref="F1:AY123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2297,7 +2318,7 @@
     <col min="25" max="25" width="23.88671875" style="2" customWidth="1"/>
     <col min="26" max="27" width="9.5546875" style="2" customWidth="1"/>
     <col min="28" max="34" width="8.88671875" style="2"/>
-    <col min="35" max="35" width="15.109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="3.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="1.77734375" style="2" customWidth="1"/>
     <col min="37" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -2668,8 +2689,7 @@
         <v>122</v>
       </c>
       <c r="I11" s="24">
-        <f>SUM(I28+I43+I58+I73+I89+I106+I121)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" s="24">
         <f>SUM(J28+J43+J58+J73+J89+J106+J121)</f>
@@ -2792,7 +2812,7 @@
       </c>
       <c r="I14" s="24">
         <f>SUM(I4:I13)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="0"/>
@@ -2965,31 +2985,31 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
-      <c r="AC23" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
+      <c r="AC23" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
     </row>
     <row r="24" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F24" s="17">
@@ -3012,31 +3032,31 @@
       <c r="AB24" s="2">
         <v>1</v>
       </c>
-      <c r="AC24" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="37"/>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="37"/>
-      <c r="AT24" s="37"/>
-      <c r="AU24" s="37"/>
-      <c r="AV24" s="37"/>
-      <c r="AW24" s="37"/>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="37"/>
+      <c r="AC24" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="32"/>
+      <c r="AY24" s="32"/>
     </row>
     <row r="25" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F25" s="17">
@@ -3063,31 +3083,31 @@
       <c r="AB25" s="2">
         <v>2</v>
       </c>
-      <c r="AC25" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="37"/>
-      <c r="AN25" s="37"/>
-      <c r="AO25" s="37"/>
-      <c r="AP25" s="37"/>
-      <c r="AQ25" s="37"/>
-      <c r="AR25" s="37"/>
-      <c r="AS25" s="37"/>
-      <c r="AT25" s="37"/>
-      <c r="AU25" s="37"/>
-      <c r="AV25" s="37"/>
-      <c r="AW25" s="37"/>
-      <c r="AX25" s="37"/>
-      <c r="AY25" s="37"/>
+      <c r="AC25" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="32"/>
+      <c r="AY25" s="32"/>
     </row>
     <row r="26" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F26" s="17">
@@ -3114,31 +3134,31 @@
       <c r="AB26" s="2">
         <v>3</v>
       </c>
-      <c r="AC26" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
-      <c r="AT26" s="37"/>
-      <c r="AU26" s="37"/>
-      <c r="AV26" s="37"/>
-      <c r="AW26" s="37"/>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="37"/>
+      <c r="AC26" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="32"/>
     </row>
     <row r="27" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F27" s="17">
@@ -3167,31 +3187,31 @@
       <c r="AB27" s="2">
         <v>4</v>
       </c>
-      <c r="AC27" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
-      <c r="AT27" s="37"/>
-      <c r="AU27" s="37"/>
-      <c r="AV27" s="37"/>
-      <c r="AW27" s="37"/>
-      <c r="AX27" s="37"/>
-      <c r="AY27" s="37"/>
+      <c r="AC27" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
     </row>
     <row r="28" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F28" s="17">
@@ -3222,31 +3242,31 @@
       <c r="AB28" s="2">
         <v>5</v>
       </c>
-      <c r="AC28" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="37"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
+      <c r="AC28" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="32"/>
     </row>
     <row r="29" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F29" s="17">
@@ -3275,31 +3295,31 @@
       <c r="AB29" s="2">
         <v>6</v>
       </c>
-      <c r="AC29" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="37"/>
-      <c r="AY29" s="37"/>
+      <c r="AC29" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="32"/>
+      <c r="AY29" s="32"/>
     </row>
     <row r="30" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F30" s="17">
@@ -3326,58 +3346,58 @@
       <c r="AB30" s="2">
         <v>7</v>
       </c>
-      <c r="AC30" s="39" t="s">
+      <c r="AC30" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="32"/>
+      <c r="AY30" s="32"/>
+    </row>
+    <row r="31" spans="6:51" x14ac:dyDescent="0.3">
+      <c r="AC31" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="37"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="37"/>
-      <c r="AT30" s="37"/>
-      <c r="AU30" s="37"/>
-      <c r="AV30" s="37"/>
-      <c r="AW30" s="37"/>
-      <c r="AX30" s="37"/>
-      <c r="AY30" s="37"/>
-    </row>
-    <row r="31" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="AC31" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="37"/>
-      <c r="AT31" s="37"/>
-      <c r="AU31" s="37"/>
-      <c r="AV31" s="37"/>
-      <c r="AW31" s="37"/>
-      <c r="AX31" s="37"/>
-      <c r="AY31" s="37"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="32"/>
+      <c r="AQ31" s="32"/>
+      <c r="AR31" s="32"/>
+      <c r="AS31" s="32"/>
+      <c r="AT31" s="32"/>
+      <c r="AU31" s="32"/>
+      <c r="AV31" s="32"/>
+      <c r="AW31" s="32"/>
+      <c r="AX31" s="32"/>
+      <c r="AY31" s="32"/>
     </row>
     <row r="32" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F32" s="19" t="s">
@@ -3391,69 +3411,66 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
-      <c r="AM32" s="40"/>
-      <c r="AN32" s="40"/>
-      <c r="AO32" s="40"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
-      <c r="AS32" s="40"/>
-      <c r="AT32" s="40"/>
-      <c r="AU32" s="40"/>
-      <c r="AV32" s="40"/>
-      <c r="AW32" s="40"/>
-      <c r="AX32" s="40"/>
-      <c r="AY32" s="40"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="35"/>
+      <c r="AQ32" s="35"/>
+      <c r="AR32" s="35"/>
+      <c r="AS32" s="35"/>
+      <c r="AT32" s="35"/>
+      <c r="AU32" s="35"/>
+      <c r="AV32" s="35"/>
+      <c r="AW32" s="35"/>
+      <c r="AX32" s="35"/>
+      <c r="AY32" s="35"/>
     </row>
     <row r="33" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F33" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="S33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="40"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="40"/>
-      <c r="AI33" s="40"/>
-      <c r="AJ33" s="40"/>
-      <c r="AK33" s="40"/>
-      <c r="AL33" s="40"/>
-      <c r="AM33" s="40"/>
-      <c r="AN33" s="40"/>
-      <c r="AO33" s="40"/>
-      <c r="AP33" s="40"/>
-      <c r="AQ33" s="40"/>
-      <c r="AR33" s="40"/>
-      <c r="AS33" s="40"/>
-      <c r="AT33" s="40"/>
-      <c r="AU33" s="40"/>
-      <c r="AV33" s="40"/>
-      <c r="AW33" s="40"/>
-      <c r="AX33" s="40"/>
-      <c r="AY33" s="40"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="35"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="35"/>
+      <c r="AN33" s="35"/>
+      <c r="AO33" s="35"/>
+      <c r="AP33" s="35"/>
+      <c r="AQ33" s="35"/>
+      <c r="AR33" s="35"/>
+      <c r="AS33" s="35"/>
+      <c r="AT33" s="35"/>
+      <c r="AU33" s="35"/>
+      <c r="AV33" s="35"/>
+      <c r="AW33" s="35"/>
+      <c r="AX33" s="35"/>
+      <c r="AY33" s="35"/>
     </row>
     <row r="34" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F34" s="17"/>
@@ -3474,6 +3491,9 @@
         <v>108</v>
       </c>
       <c r="O34" s="15"/>
+      <c r="Y34" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="35" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F35" s="17" t="s">
@@ -3506,15 +3526,17 @@
       <c r="O35" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA35" s="14" t="s">
         <v>83</v>
@@ -3540,6 +3562,7 @@
       <c r="AH35" s="14">
         <v>7</v>
       </c>
+      <c r="AI35" s="14"/>
     </row>
     <row r="36" spans="6:51" x14ac:dyDescent="0.3">
       <c r="F36" s="17">
@@ -3557,27 +3580,27 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
-      <c r="Q36" s="2">
+      <c r="Q36" s="14">
         <v>1</v>
       </c>
-      <c r="R36" s="27" t="s">
+      <c r="R36" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="S36" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="1" t="s">
-        <v>164</v>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="Z36" s="14">
         <v>5</v>
       </c>
-      <c r="AA36" s="1"/>
+      <c r="AA36" s="40"/>
       <c r="AB36" s="14" t="s">
         <v>70</v>
       </c>
@@ -3593,7 +3616,7 @@
       <c r="AH36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AI36" s="2" t="str">
+      <c r="AI36" s="14" t="str">
         <f>IF(AA36="y"," $^{\ast}$ &amp; "," &amp; ")</f>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -3620,22 +3643,22 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
-      <c r="Q37" s="2">
+      <c r="Q37" s="14">
         <v>2</v>
       </c>
-      <c r="R37" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="S37" s="25" t="s">
+      <c r="R37" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="S37" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="1" t="s">
-        <v>165</v>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="39" t="s">
+        <v>164</v>
       </c>
       <c r="Z37" s="14">
         <v>5</v>
@@ -3654,12 +3677,12 @@
       <c r="AH37" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AI37" s="2" t="str">
-        <f t="shared" ref="AI37:AI73" si="3">IF(AA37="y"," $^{\ast}$ &amp; "," &amp; ")</f>
+      <c r="AI37" s="14" t="str">
+        <f t="shared" ref="AI37:AI100" si="3">IF(AA37="y"," $^{\ast}$ &amp; "," &amp; ")</f>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK37" s="2" t="str">
-        <f t="shared" ref="AK37:AK70" si="4">Q37&amp;AI37&amp;RIGHT(S37,4)&amp;" &amp; "&amp;Y37&amp;""&amp;"~\cite[]{"&amp;S37&amp;"}"&amp;" &amp; "&amp;AB37&amp;" &amp; "&amp;AC37&amp;" &amp; "&amp;AD37&amp;" &amp; "&amp;AE37&amp;" &amp; "&amp;AF37&amp;" &amp; "&amp;AG37&amp;" &amp; "&amp;AH37&amp;" \\\hline"</f>
+        <f t="shared" ref="AK37:AK92" si="4">Q37&amp;AI37&amp;RIGHT(S37,4)&amp;" &amp; "&amp;Y37&amp;""&amp;"~\cite[]{"&amp;S37&amp;"}"&amp;" &amp; "&amp;AB37&amp;" &amp; "&amp;AC37&amp;" &amp; "&amp;AD37&amp;" &amp; "&amp;AE37&amp;" &amp; "&amp;AF37&amp;" &amp; "&amp;AG37&amp;" &amp; "&amp;AH37&amp;" \\\hline"</f>
         <v>2 &amp; 2021 &amp; Fosch-Villaronga et al.~\cite[]{cyber_sec_safet_robots_legal_2021} &amp; X &amp; X &amp;  &amp;  &amp;  &amp;  &amp; X \\\hline</v>
       </c>
     </row>
@@ -3679,22 +3702,22 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
-      <c r="Q38" s="2">
+      <c r="Q38" s="14">
         <v>3</v>
       </c>
-      <c r="R38" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="S38" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="14" t="s">
-        <v>146</v>
+      <c r="R38" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="S38" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="Z38" s="14">
         <v>5</v>
@@ -3711,7 +3734,7 @@
       <c r="AH38" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AI38" s="2" t="str">
+      <c r="AI38" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -3740,27 +3763,27 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
-      <c r="Q39" s="2">
+      <c r="Q39" s="14">
         <v>4</v>
       </c>
-      <c r="R39" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="S39" s="25" t="s">
+      <c r="R39" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="S39" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="1" t="s">
-        <v>156</v>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="Z39" s="14">
         <v>5</v>
       </c>
-      <c r="AA39" s="1"/>
+      <c r="AA39" s="40"/>
       <c r="AB39" s="14" t="s">
         <v>70</v>
       </c>
@@ -3772,7 +3795,7 @@
         <v>70</v>
       </c>
       <c r="AH39" s="14"/>
-      <c r="AI39" s="2" t="str">
+      <c r="AI39" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -3799,27 +3822,27 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
-      <c r="Q40" s="2">
+      <c r="Q40" s="14">
         <v>5</v>
       </c>
-      <c r="R40" s="27" t="s">
+      <c r="R40" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="S40" s="25" t="s">
+      <c r="S40" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="1" t="s">
-        <v>157</v>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="Z40" s="14">
         <v>5</v>
       </c>
-      <c r="AA40" s="1"/>
+      <c r="AA40" s="40"/>
       <c r="AB40" s="14" t="s">
         <v>70</v>
       </c>
@@ -3839,7 +3862,7 @@
       <c r="AH40" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AI40" s="2" t="str">
+      <c r="AI40" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -3866,27 +3889,27 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
-      <c r="Q41" s="2">
+      <c r="Q41" s="14">
         <v>6</v>
       </c>
-      <c r="R41" s="27" t="s">
+      <c r="R41" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="S41" s="25" t="s">
+      <c r="S41" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="1" t="s">
-        <v>158</v>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="39" t="s">
+        <v>157</v>
       </c>
       <c r="Z41" s="14">
         <v>5</v>
       </c>
-      <c r="AA41" s="1"/>
+      <c r="AA41" s="40"/>
       <c r="AB41" s="14"/>
       <c r="AC41" s="14"/>
       <c r="AD41" s="14"/>
@@ -3898,7 +3921,7 @@
         <v>70</v>
       </c>
       <c r="AH41" s="14"/>
-      <c r="AI41" s="2" t="str">
+      <c r="AI41" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -3923,51 +3946,47 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
-      <c r="Q42" s="2">
+      <c r="Q42" s="14">
         <v>7</v>
       </c>
-      <c r="R42" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="S42" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="1" t="s">
-        <v>166</v>
+      <c r="R42" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="S42" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="Z42" s="14">
         <v>5</v>
       </c>
-      <c r="AA42" s="14" t="s">
-        <v>160</v>
-      </c>
+      <c r="AA42" s="14"/>
       <c r="AB42" s="14" t="s">
         <v>70</v>
       </c>
       <c r="AC42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AD42" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="AD42" s="14"/>
       <c r="AE42" s="14"/>
       <c r="AF42" s="14"/>
-      <c r="AG42" s="14" t="s">
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="2" t="str">
+      <c r="AI42" s="14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
+        <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK42" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>7 $^{\ast}$ &amp; 2017 &amp; Lera et al.~\cite[]{cyber_sec_robotics_privacy_safety_2017} &amp; X &amp; X &amp; X &amp;  &amp;  &amp; X &amp;  \\\hline</v>
+        <v>7 &amp; 2021 &amp; Villaronga et al.~\cite[]{cyber_sec_safety_robots_legal_2021} &amp; X &amp; X &amp;  &amp;  &amp;  &amp;  &amp; X \\\hline</v>
       </c>
     </row>
     <row r="43" spans="6:51" x14ac:dyDescent="0.3">
@@ -3990,45 +4009,51 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
-      <c r="Q43" s="2">
+      <c r="Q43" s="14">
         <v>8</v>
       </c>
-      <c r="R43" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="S43" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="14" t="s">
-        <v>167</v>
+      <c r="R43" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="S43" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="39" t="s">
+        <v>165</v>
       </c>
       <c r="Z43" s="14">
         <v>5</v>
       </c>
       <c r="AA43" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
+        <v>159</v>
+      </c>
+      <c r="AB43" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC43" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AD43" s="14" t="s">
         <v>70</v>
       </c>
       <c r="AE43" s="14"/>
       <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
+      <c r="AG43" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AH43" s="14"/>
-      <c r="AI43" s="2" t="str">
+      <c r="AI43" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK43" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>8 $^{\ast}$ &amp; 2016 &amp; Sabine et al.~\cite[]{if_robots_cause_harm_2016} &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+        <v>8 $^{\ast}$ &amp; 2017 &amp; Lera et al.~\cite[]{cyber_sec_robotics_privacy_safety_2017} &amp; X &amp; X &amp; X &amp;  &amp;  &amp; X &amp;  \\\hline</v>
       </c>
     </row>
     <row r="44" spans="6:51" x14ac:dyDescent="0.3">
@@ -4051,53 +4076,45 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
-      <c r="Q44" s="2">
+      <c r="Q44" s="14">
         <v>9</v>
       </c>
-      <c r="R44" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="S44" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="14" t="s">
-        <v>168</v>
+      <c r="R44" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="S44" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="36" t="s">
+        <v>166</v>
       </c>
       <c r="Z44" s="14">
         <v>5</v>
       </c>
       <c r="AA44" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB44" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC44" s="14" t="s">
-        <v>70</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
       <c r="AD44" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AE44" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="AE44" s="14"/>
       <c r="AF44" s="14"/>
       <c r="AG44" s="14"/>
-      <c r="AH44" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI44" s="2" t="str">
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK44" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>9 $^{\ast}$ &amp; 2018 &amp; Ahmad et al.~\cite[]{analyzing_cyber_physical_threats_2018} &amp; X &amp; X &amp; X &amp; X &amp;  &amp;  &amp; X \\\hline</v>
+        <v>9 $^{\ast}$ &amp; 2016 &amp; Sabine et al.~\cite[]{if_robots_cause_harm_2016} &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="45" spans="6:51" x14ac:dyDescent="0.3">
@@ -4116,91 +4133,97 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
-      <c r="Q45" s="2">
+      <c r="Q45" s="14">
         <v>10</v>
       </c>
-      <c r="R45" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="S45" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="14" t="s">
-        <v>169</v>
+      <c r="R45" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="S45" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="Z45" s="14">
         <v>5</v>
       </c>
       <c r="AA45" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB45" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AC45" s="14"/>
+      <c r="AC45" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AD45" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AE45" s="14"/>
+      <c r="AE45" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AF45" s="14"/>
       <c r="AG45" s="14"/>
-      <c r="AH45" s="14"/>
-      <c r="AI45" s="2" t="str">
+      <c r="AH45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI45" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK45" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>10 $^{\ast}$ &amp; 2017 &amp; Portugal et al.~\cite[]{role_of_security_in_human_robot_2017} &amp; X &amp;  &amp; X &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+        <v>10 $^{\ast}$ &amp; 2018 &amp; Ahmad et al.~\cite[]{analyzing_cyber_physical_threats_2018} &amp; X &amp; X &amp; X &amp; X &amp;  &amp;  &amp; X \\\hline</v>
       </c>
     </row>
     <row r="46" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="Q46" s="2">
+      <c r="Q46" s="14">
         <v>11</v>
       </c>
-      <c r="R46" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="S46" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="14" t="s">
-        <v>142</v>
+      <c r="R46" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="S46" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="Z46" s="14">
         <v>5</v>
       </c>
       <c r="AA46" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB46" s="14" t="s">
         <v>70</v>
       </c>
       <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14" t="s">
+      <c r="AD46" s="14" t="s">
         <v>70</v>
       </c>
+      <c r="AE46" s="14"/>
       <c r="AF46" s="14"/>
       <c r="AG46" s="14"/>
       <c r="AH46" s="14"/>
-      <c r="AI46" s="2" t="str">
+      <c r="AI46" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK46" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>11 $^{\ast}$ &amp; 2022 &amp; Lei et al.~\cite[]{acceptance_telepresence_robots_2022} &amp; X &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
+        <v>11 $^{\ast}$ &amp; 2017 &amp; Portugal et al.~\cite[]{role_of_security_in_human_robot_2017} &amp; X &amp;  &amp; X &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="47" spans="6:51" x14ac:dyDescent="0.3">
@@ -4216,30 +4239,32 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
-      <c r="Q47" s="2">
+      <c r="Q47" s="14">
         <v>12</v>
       </c>
-      <c r="R47" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="S47" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="1" t="s">
-        <v>144</v>
+      <c r="R47" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="S47" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="Z47" s="14">
         <v>5</v>
       </c>
-      <c r="AA47" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB47" s="14"/>
+      <c r="AA47" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB47" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AC47" s="14"/>
       <c r="AD47" s="14"/>
       <c r="AE47" s="14" t="s">
@@ -4248,13 +4273,13 @@
       <c r="AF47" s="14"/>
       <c r="AG47" s="14"/>
       <c r="AH47" s="14"/>
-      <c r="AI47" s="2" t="str">
+      <c r="AI47" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK47" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>12 $^{\ast}$ &amp; 2022 &amp; Leoste et al.~\cite[]{higher_edu_perception_on_tprs_2022} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
+        <v>12 $^{\ast}$ &amp; 2022 &amp; Lei et al.~\cite[]{acceptance_telepresence_robots_2022} &amp; X &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="48" spans="6:51" x14ac:dyDescent="0.3">
@@ -4270,47 +4295,45 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
-      <c r="Q48" s="2">
+      <c r="Q48" s="14">
         <v>13</v>
       </c>
-      <c r="R48" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="S48" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="1" t="s">
-        <v>145</v>
+      <c r="R48" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="S48" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="Z48" s="14">
         <v>5</v>
       </c>
-      <c r="AA48" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB48" s="14" t="s">
+      <c r="AA48" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AC48" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
       <c r="AF48" s="14"/>
       <c r="AG48" s="14"/>
       <c r="AH48" s="14"/>
-      <c r="AI48" s="2" t="str">
+      <c r="AI48" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK48" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>13 $^{\ast}$ &amp; 2018 &amp; Vilches et al.~\cite[]{robot_security_framework_2018} &amp; X &amp; X &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+        <v>13 $^{\ast}$ &amp; 2022 &amp; Leoste et al.~\cite[]{higher_edu_perception_on_tprs_2022} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="49" spans="6:37" x14ac:dyDescent="0.3">
@@ -4332,47 +4355,47 @@
         <v>108</v>
       </c>
       <c r="O49" s="15"/>
-      <c r="Q49" s="2">
+      <c r="Q49" s="14">
         <v>14</v>
       </c>
-      <c r="R49" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="S49" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="1" t="s">
-        <v>161</v>
+      <c r="R49" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="S49" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="Z49" s="14">
         <v>5</v>
       </c>
-      <c r="AA49" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14" t="s">
+      <c r="AA49" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB49" s="14" t="s">
         <v>70</v>
       </c>
+      <c r="AC49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
-      <c r="AF49" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="AF49" s="14"/>
       <c r="AG49" s="14"/>
       <c r="AH49" s="14"/>
-      <c r="AI49" s="2" t="str">
+      <c r="AI49" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK49" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>14 $^{\ast}$ &amp; 2022 &amp; Mayoral-Vilches~\cite[]{robot_security_review_2022} &amp;  &amp;  &amp; X &amp;  &amp; X &amp;  &amp;  \\\hline</v>
+        <v>14 $^{\ast}$ &amp; 2018 &amp; Vilches et al.~\cite[]{robot_security_framework_2018} &amp; X &amp; X &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="50" spans="6:37" x14ac:dyDescent="0.3">
@@ -4406,47 +4429,47 @@
       <c r="O50" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q50" s="14">
         <v>15</v>
       </c>
-      <c r="R50" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="S50" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="1" t="s">
-        <v>162</v>
+      <c r="R50" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="S50" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="39" t="s">
+        <v>160</v>
       </c>
       <c r="Z50" s="14">
         <v>5</v>
       </c>
       <c r="AA50" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB50" s="14"/>
       <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="14" t="s">
+      <c r="AD50" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AF50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AG50" s="14"/>
-      <c r="AH50" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI50" s="2" t="str">
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK50" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>15 $^{\ast}$ &amp; 2020 &amp; Singar et al.~\cite[]{role_of_cyber_security_in_higher_edu_2020} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp; X \\\hline</v>
+        <v>15 $^{\ast}$ &amp; 2022 &amp; Mayoral-Vilches~\cite[]{robot_security_review_2022} &amp;  &amp;  &amp; X &amp;  &amp; X &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="51" spans="6:37" x14ac:dyDescent="0.3">
@@ -4469,28 +4492,28 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
-      <c r="Q51" s="2">
+      <c r="Q51" s="14">
         <v>16</v>
       </c>
-      <c r="R51" s="27" t="s">
+      <c r="R51" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="S51" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="1" t="s">
-        <v>163</v>
+      <c r="S51" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="Z51" s="14">
         <v>5</v>
       </c>
       <c r="AA51" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB51" s="14"/>
       <c r="AC51" s="14"/>
@@ -4500,14 +4523,16 @@
       </c>
       <c r="AF51" s="14"/>
       <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="2" t="str">
+      <c r="AH51" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI51" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK51" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>16 $^{\ast}$ &amp; 2019 &amp; Reis et al.~\cite[]{telepresence_robots_in_classroom_2019} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
+        <v>16 $^{\ast}$ &amp; 2020 &amp; Singar et al.~\cite[]{role_of_cyber_security_in_higher_edu_2020} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp; X \\\hline</v>
       </c>
     </row>
     <row r="52" spans="6:37" x14ac:dyDescent="0.3">
@@ -4532,31 +4557,45 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17"/>
-      <c r="Q52" s="2">
+      <c r="Q52" s="14">
         <v>17</v>
       </c>
-      <c r="R52" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z52" s="2">
+      <c r="R52" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="S52" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z52" s="14">
         <v>5</v>
       </c>
-      <c r="AA52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI52" s="2" t="str">
+      <c r="AA52" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="14"/>
+      <c r="AI52" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK52" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>17 $^{\ast}$ &amp; 2022 &amp; Virkus et al.~\cite[]{telepresence_perspective_psychology_educational_2022} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+        <v>17 $^{\ast}$ &amp; 2019 &amp; Reis et al.~\cite[]{telepresence_robots_in_classroom_2019} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="53" spans="6:37" x14ac:dyDescent="0.3">
@@ -4577,16 +4616,45 @@
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
-      <c r="Q53" s="2">
+      <c r="Q53" s="14">
         <v>18</v>
       </c>
-      <c r="AI53" s="2" t="str">
+      <c r="R53" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="S53" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> &amp; </v>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK53" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>18 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+        <v>18 $^{\ast}$ &amp; 2022 &amp; Virkus et al.~\cite[]{telepresence_perspective_psychology_educational_2022} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="54" spans="6:37" x14ac:dyDescent="0.3">
@@ -4609,16 +4677,45 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
-      <c r="Q54" s="2">
+      <c r="Q54" s="14">
         <v>19</v>
       </c>
-      <c r="AI54" s="2" t="str">
+      <c r="R54" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="S54" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z54" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> &amp; </v>
+        <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK54" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>19 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+        <v>19 $^{\ast}$ &amp; 2021 &amp; Gupta et al.~\cite[]{humans_and_robots_relation_2021} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="55" spans="6:37" x14ac:dyDescent="0.3">
@@ -4641,10 +4738,10 @@
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
-      <c r="Q55" s="2">
+      <c r="Q55" s="14">
         <v>20</v>
       </c>
-      <c r="AI55" s="2" t="str">
+      <c r="AI55" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4673,10 +4770,27 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
-      <c r="Q56" s="2">
+      <c r="Q56" s="14">
         <v>21</v>
       </c>
-      <c r="AI56" s="2" t="str">
+      <c r="R56" s="14"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4705,10 +4819,27 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
-      <c r="Q57" s="2">
+      <c r="Q57" s="14">
         <v>22</v>
       </c>
-      <c r="AI57" s="2" t="str">
+      <c r="R57" s="14"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4737,13 +4868,13 @@
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="25"/>
-      <c r="V58" s="25"/>
-      <c r="W58" s="25"/>
-      <c r="X58" s="25"/>
-      <c r="AI58" s="2" t="str">
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="AI58" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4772,13 +4903,13 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
-      <c r="V59" s="25"/>
-      <c r="W59" s="25"/>
-      <c r="X59" s="25"/>
-      <c r="AI59" s="2" t="str">
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="AI59" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4805,13 +4936,13 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="25"/>
-      <c r="W60" s="25"/>
-      <c r="X60" s="25"/>
-      <c r="AI60" s="2" t="str">
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="AI60" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4821,13 +4952,13 @@
       </c>
     </row>
     <row r="61" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
-      <c r="V61" s="25"/>
-      <c r="W61" s="25"/>
-      <c r="X61" s="25"/>
-      <c r="AI61" s="2" t="str">
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="AI61" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4849,13 +4980,13 @@
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="25"/>
-      <c r="V62" s="25"/>
-      <c r="W62" s="25"/>
-      <c r="X62" s="25"/>
-      <c r="AI62" s="2" t="str">
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="AI62" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4877,13 +5008,13 @@
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="25"/>
-      <c r="W63" s="25"/>
-      <c r="X63" s="25"/>
-      <c r="AI63" s="2" t="str">
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="AI63" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4911,13 +5042,13 @@
         <v>108</v>
       </c>
       <c r="O64" s="15"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="25"/>
-      <c r="V64" s="25"/>
-      <c r="W64" s="25"/>
-      <c r="X64" s="25"/>
-      <c r="AI64" s="2" t="str">
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="AI64" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4957,13 +5088,13 @@
       <c r="O65" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="25"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="25"/>
-      <c r="X65" s="25"/>
-      <c r="AI65" s="2" t="str">
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="AI65" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -4993,17 +5124,17 @@
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="R66" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S66" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="S66" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="T66" s="25"/>
-      <c r="U66" s="25"/>
-      <c r="V66" s="25"/>
-      <c r="W66" s="25"/>
-      <c r="X66" s="25"/>
-      <c r="AI66" s="2" t="str">
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="AI66" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -5028,13 +5159,13 @@
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="25"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="AI67" s="2" t="str">
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="AI67" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -5065,7 +5196,7 @@
       <c r="V68" s="25"/>
       <c r="W68" s="25"/>
       <c r="X68" s="25"/>
-      <c r="AI68" s="2" t="str">
+      <c r="AI68" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -5100,7 +5231,7 @@
       <c r="V69" s="25"/>
       <c r="W69" s="25"/>
       <c r="X69" s="25"/>
-      <c r="AI69" s="2" t="str">
+      <c r="AI69" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -5135,7 +5266,7 @@
       <c r="V70" s="25"/>
       <c r="W70" s="25"/>
       <c r="X70" s="25"/>
-      <c r="AI70" s="2" t="str">
+      <c r="AI70" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -5170,12 +5301,12 @@
       <c r="V71" s="25"/>
       <c r="W71" s="25"/>
       <c r="X71" s="25"/>
-      <c r="AI71" s="2" t="str">
+      <c r="AI71" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK71" s="2" t="str">
-        <f t="shared" ref="AK37:AK74" si="7">Q71&amp;AI71&amp;RIGHT(S71,4)&amp;" &amp; "&amp;Y71&amp;""&amp;"~\cite[]{"&amp;S71&amp;"}"&amp;" &amp; "&amp;AB71&amp;" &amp; "&amp;AC71&amp;" &amp; "&amp;AD71&amp;" &amp; "&amp;AE71&amp;" &amp; "&amp;AF71&amp;" &amp; "&amp;AG71&amp;" &amp; "&amp;AH71&amp;" \\\hline"</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
@@ -5205,12 +5336,12 @@
       <c r="V72" s="25"/>
       <c r="W72" s="25"/>
       <c r="X72" s="25"/>
-      <c r="AI72" s="2" t="str">
+      <c r="AI72" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK72" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
@@ -5242,12 +5373,12 @@
       <c r="V73" s="25"/>
       <c r="W73" s="25"/>
       <c r="X73" s="25"/>
-      <c r="AI73" s="2" t="str">
+      <c r="AI73" s="14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK73" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
@@ -5277,9 +5408,13 @@
       <c r="V74" s="25"/>
       <c r="W74" s="25"/>
       <c r="X74" s="25"/>
+      <c r="AI74" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
       <c r="AK74" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="75" spans="6:37" x14ac:dyDescent="0.3">
@@ -5308,6 +5443,14 @@
       <c r="V75" s="25"/>
       <c r="W75" s="25"/>
       <c r="X75" s="25"/>
+      <c r="AI75" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK75" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
     </row>
     <row r="76" spans="6:37" x14ac:dyDescent="0.3">
       <c r="S76" s="25"/>
@@ -5316,6 +5459,14 @@
       <c r="V76" s="25"/>
       <c r="W76" s="25"/>
       <c r="X76" s="25"/>
+      <c r="AI76" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK76" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
     </row>
     <row r="77" spans="6:37" x14ac:dyDescent="0.3">
       <c r="S77" s="25"/>
@@ -5324,6 +5475,14 @@
       <c r="V77" s="25"/>
       <c r="W77" s="25"/>
       <c r="X77" s="25"/>
+      <c r="AI77" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK77" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
     </row>
     <row r="78" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F78" s="2" t="s">
@@ -5338,6 +5497,14 @@
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
+      <c r="AI78" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK78" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
     </row>
     <row r="79" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F79" s="21" t="s">
@@ -5345,13 +5512,21 @@
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
+      <c r="AI79" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK79" s="2" t="str">
+        <f>Q79&amp;AI79&amp;RIGHT(S79,4)&amp;" &amp; "&amp;Y79&amp;""&amp;"~\cite[]{"&amp;S79&amp;"}"&amp;" &amp; "&amp;AB79&amp;" &amp; "&amp;AC79&amp;" &amp; "&amp;AD79&amp;" &amp; "&amp;AE79&amp;" &amp; "&amp;AF79&amp;" &amp; "&amp;AG79&amp;" &amp; "&amp;AH79&amp;" \\\hline"</f>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
     </row>
     <row r="80" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F80" s="17"/>
@@ -5372,8 +5547,16 @@
         <v>108</v>
       </c>
       <c r="O80" s="15"/>
-    </row>
-    <row r="81" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI80" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK80" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="81" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F81" s="17" t="s">
         <v>32</v>
       </c>
@@ -5404,8 +5587,16 @@
       <c r="O81" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="82" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI81" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK81" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="82" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F82" s="17">
         <v>2014</v>
       </c>
@@ -5423,13 +5614,21 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
-    </row>
-    <row r="83" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI82" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK82" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="83" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F83" s="17">
         <v>2015</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G82:G91" si="8">SUM(H83+J83+L83+N83)</f>
+        <f t="shared" ref="G82:G91" si="7">SUM(H83+J83+L83+N83)</f>
         <v>4</v>
       </c>
       <c r="H83" s="17">
@@ -5442,13 +5641,21 @@
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
-    </row>
-    <row r="84" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI83" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK83" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="84" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F84" s="17">
         <v>2016</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H84" s="17">
@@ -5461,13 +5668,21 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
-    </row>
-    <row r="85" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI84" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK84" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="85" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F85" s="17">
         <v>2017</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H85" s="17">
@@ -5480,13 +5695,21 @@
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
-    </row>
-    <row r="86" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI85" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK85" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="86" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F86" s="17">
         <v>2018</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="H86" s="17">
@@ -5499,13 +5722,21 @@
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
-    </row>
-    <row r="87" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI86" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK86" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="87" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F87" s="17">
         <v>2019</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="H87" s="17">
@@ -5518,13 +5749,21 @@
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
       <c r="O87" s="17"/>
-    </row>
-    <row r="88" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI87" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK87" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="88" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F88" s="17">
         <v>2020</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="H88" s="17">
@@ -5537,13 +5776,21 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
       <c r="O88" s="17"/>
-    </row>
-    <row r="89" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI88" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK88" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="89" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F89" s="17">
         <v>2021</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="H89" s="17">
@@ -5556,13 +5803,21 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
       <c r="O89" s="17"/>
-    </row>
-    <row r="90" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI89" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK89" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="90" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F90" s="17">
         <v>2022</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="H90" s="17">
@@ -5577,13 +5832,21 @@
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
       <c r="O90" s="17"/>
-    </row>
-    <row r="91" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI90" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK90" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="91" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F91" s="17">
         <v>2023</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="H91" s="17">
@@ -5596,8 +5859,38 @@
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
       <c r="O91" s="17"/>
-    </row>
-    <row r="95" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI91" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK91" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="92" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="AI92" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="AK92" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
+      </c>
+    </row>
+    <row r="93" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="AI93" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="94" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="AI94" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="95" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F95" s="2" t="s">
         <v>119</v>
       </c>
@@ -5610,22 +5903,30 @@
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
       <c r="O95" s="12"/>
-    </row>
-    <row r="96" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI95" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="96" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F96" s="21" t="s">
         <v>120</v>
       </c>
       <c r="G96" s="12"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
       <c r="O96" s="12"/>
-    </row>
-    <row r="97" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI96" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="97" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
       <c r="H97" s="15" t="s">
@@ -5644,8 +5945,12 @@
         <v>108</v>
       </c>
       <c r="O97" s="15"/>
-    </row>
-    <row r="98" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI97" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="98" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F98" s="17" t="s">
         <v>32</v>
       </c>
@@ -5676,8 +5981,12 @@
       <c r="O98" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="99" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI98" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="99" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F99" s="17">
         <v>2014</v>
       </c>
@@ -5693,13 +6002,17 @@
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
-    </row>
-    <row r="100" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI99" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="100" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F100" s="17">
         <v>2015</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100:G108" si="9">SUM(H100+J100+L100+N100)</f>
+        <f t="shared" ref="G100:G108" si="8">SUM(H100+J100+L100+N100)</f>
         <v>0</v>
       </c>
       <c r="H100" s="17"/>
@@ -5710,13 +6023,17 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
-    </row>
-    <row r="101" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI100" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="101" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F101" s="17">
         <v>2016</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H101" s="17"/>
@@ -5727,13 +6044,17 @@
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
-    </row>
-    <row r="102" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI101" s="14" t="str">
+        <f t="shared" ref="AI101:AI107" si="9">IF(AA101="y"," $^{\ast}$ &amp; "," &amp; ")</f>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="102" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F102" s="17">
         <v>2017</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H102" s="17"/>
@@ -5744,13 +6065,17 @@
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
-    </row>
-    <row r="103" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI102" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="103" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F103" s="17">
         <v>2018</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H103" s="17"/>
@@ -5761,13 +6086,17 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
-    </row>
-    <row r="104" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI103" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="104" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F104" s="17">
         <v>2019</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H104" s="17"/>
@@ -5778,13 +6107,17 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
-    </row>
-    <row r="105" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI104" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="105" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F105" s="17">
         <v>2020</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H105" s="17"/>
@@ -5795,13 +6128,17 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
-    </row>
-    <row r="106" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI105" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="106" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F106" s="17">
         <v>2021</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H106" s="17">
@@ -5816,13 +6153,17 @@
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
-    </row>
-    <row r="107" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI106" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="107" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F107" s="17">
         <v>2022</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H107" s="17">
@@ -5839,13 +6180,17 @@
       <c r="O107" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="AI107" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+    </row>
+    <row r="108" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F108" s="17">
         <v>2023</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H108" s="17"/>
@@ -5857,7 +6202,7 @@
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
     </row>
-    <row r="110" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F110" s="2" t="s">
         <v>138</v>
       </c>
@@ -5871,13 +6216,13 @@
       <c r="N110" s="12"/>
       <c r="O110" s="12"/>
     </row>
-    <row r="111" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F111" s="21" t="s">
         <v>137</v>
       </c>
       <c r="G111" s="12"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
@@ -5885,7 +6230,7 @@
       <c r="N111" s="12"/>
       <c r="O111" s="12"/>
     </row>
-    <row r="112" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="15" t="s">
@@ -6081,7 +6426,9 @@
       <c r="H121" s="17">
         <v>31</v>
       </c>
-      <c r="I121" s="17"/>
+      <c r="I121" s="17">
+        <v>1</v>
+      </c>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>

--- a/literature-review/assets/excel.xlsx
+++ b/literature-review/assets/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\partsjoo\Desktop\thesis\literature-review\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035DA672-F719-44B6-9091-D149D91B5EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9D746-B55F-48A6-BBDE-48CA194C8517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24468" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7392" yWindow="2892" windowWidth="30960" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$27:$T$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -938,7 +939,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0;\-0;;@"/>
+    <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1076,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1096,11 +1097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,9 +1109,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,10 +1125,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1166,7 +1159,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1181,6 +1173,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2011,7 +2006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
         <v>84</v>
@@ -2025,9 +2020,8 @@
       <c r="H55" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C56" s="2">
         <v>1</v>
       </c>
@@ -2040,17 +2034,17 @@
       <c r="F56" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="7">
         <v>5</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C57" s="2">
         <v>2</v>
       </c>
@@ -2063,17 +2057,17 @@
       <c r="F57" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="7">
         <v>5</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C58" s="2">
         <v>3</v>
       </c>
@@ -2086,17 +2080,17 @@
       <c r="F58" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="7">
         <v>5</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C59" s="2">
         <v>4</v>
       </c>
@@ -2109,17 +2103,17 @@
       <c r="F59" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="7">
         <v>5</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C60" s="2">
         <v>5</v>
       </c>
@@ -2132,17 +2126,17 @@
       <c r="F60" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="7">
         <v>5</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C61" s="2">
         <v>6</v>
       </c>
@@ -2155,17 +2149,17 @@
       <c r="F61" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="7">
         <v>5</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C62" s="2">
         <v>7</v>
       </c>
@@ -2178,17 +2172,17 @@
       <c r="F62" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="7">
         <v>5</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I62" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C63" s="2">
         <v>8</v>
       </c>
@@ -2201,17 +2195,17 @@
       <c r="F63" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="7">
         <v>5</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C64" s="2">
         <v>9</v>
       </c>
@@ -2224,13 +2218,13 @@
       <c r="F64" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="7">
         <v>5</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2306,7 +2300,7 @@
   <dimension ref="F1:AY123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,1296 +2321,1250 @@
       <c r="F1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F4" s="22">
+      <c r="F4" s="18">
         <v>2014</v>
       </c>
-      <c r="G4" s="24">
-        <f>SUM(G21+G36+G51+G66+G82+G99+G114)</f>
+      <c r="G4" s="20">
+        <f t="shared" ref="G4:O4" si="0">SUM(G21+G36+G51+G66+G82+G99+G114)</f>
         <v>14</v>
       </c>
-      <c r="H4" s="24">
-        <f>SUM(H21+H36+H51+H66+H82+H99+H114)</f>
+      <c r="H4" s="20">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I4" s="24">
-        <f>SUM(I21+I36+I51+I66+I82+I99+I114)</f>
+      <c r="I4" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="24">
-        <f>SUM(J21+J36+J51+J66+J82+J99+J114)</f>
+      <c r="J4" s="20">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K4" s="24">
-        <f>SUM(K21+K36+K51+K66+K82+K99+K114)</f>
+      <c r="K4" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="24">
-        <f>SUM(L21+L36+L51+L66+L82+L99+L114)</f>
+      <c r="L4" s="20">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M4" s="24">
-        <f>SUM(M21+M36+M51+M66+M82+M99+M114)</f>
+      <c r="M4" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="24">
-        <f>SUM(N21+N36+N51+N66+N82+N99+N114)</f>
+      <c r="N4" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="24">
-        <f>SUM(O21+O36+O51+O66+O82+O99+O114)</f>
+      <c r="O4" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F5" s="22">
+      <c r="F5" s="18">
         <v>2015</v>
       </c>
-      <c r="G5" s="24">
-        <f>SUM(G22+G37+G52+G67+G83+G100+G115)</f>
+      <c r="G5" s="20">
+        <f t="shared" ref="G5:O5" si="1">SUM(G22+G37+G52+G67+G83+G100+G115)</f>
         <v>10</v>
       </c>
-      <c r="H5" s="24">
-        <f>SUM(H22+H37+H52+H67+H83+H100+H115)</f>
+      <c r="H5" s="20">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I5" s="24">
-        <f>SUM(I22+I37+I52+I67+I83+I100+I115)</f>
+      <c r="I5" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="24">
-        <f>SUM(J22+J37+J52+J67+J83+J100+J115)</f>
+      <c r="J5" s="20">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K5" s="24">
-        <f>SUM(K22+K37+K52+K67+K83+K100+K115)</f>
+      <c r="K5" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="24">
-        <f>SUM(L22+L37+L52+L67+L83+L100+L115)</f>
+      <c r="L5" s="20">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M5" s="24">
-        <f>SUM(M22+M37+M52+M67+M83+M100+M115)</f>
+      <c r="M5" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="24">
-        <f>SUM(N22+N37+N52+N67+N83+N100+N115)</f>
+      <c r="N5" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="24">
-        <f>SUM(O22+O37+O52+O67+O83+O100+O115)</f>
+      <c r="O5" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>2016</v>
       </c>
-      <c r="G6" s="24">
-        <f>SUM(G23+G38+G53+G68+G84+G101+G116)</f>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:O6" si="2">SUM(G23+G38+G53+G68+G84+G101+G116)</f>
         <v>7</v>
       </c>
-      <c r="H6" s="24">
-        <f>SUM(H23+H38+H53+H68+H84+H101+H116)</f>
+      <c r="H6" s="20">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I6" s="24">
-        <f>SUM(I23+I38+I53+I68+I84+I101+I116)</f>
+      <c r="I6" s="20">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J6" s="24">
-        <f>SUM(J23+J38+J53+J68+J84+J101+J116)</f>
+      <c r="J6" s="20">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="24">
-        <f>SUM(K23+K38+K53+K68+K84+K101+K116)</f>
+      <c r="K6" s="20">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="24">
-        <f>SUM(L23+L38+L53+L68+L84+L101+L116)</f>
+      <c r="L6" s="20">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M6" s="24">
-        <f>SUM(M23+M38+M53+M68+M84+M101+M116)</f>
+      <c r="M6" s="20">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N6" s="24">
-        <f>SUM(N23+N38+N53+N68+N84+N101+N116)</f>
+      <c r="N6" s="20">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="24">
-        <f>SUM(O23+O38+O53+O68+O84+O101+O116)</f>
+      <c r="O6" s="20">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>2017</v>
       </c>
-      <c r="G7" s="24">
-        <f>SUM(G24+G39+G54+G69+G85+G102+G117)</f>
+      <c r="G7" s="20">
+        <f t="shared" ref="G7:O7" si="3">SUM(G24+G39+G54+G69+G85+G102+G117)</f>
         <v>18</v>
       </c>
-      <c r="H7" s="24">
-        <f>SUM(H24+H39+H54+H69+H85+H102+H117)</f>
+      <c r="H7" s="20">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I7" s="24">
-        <f>SUM(I24+I39+I54+I69+I85+I102+I117)</f>
+      <c r="I7" s="20">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J7" s="24">
-        <f>SUM(J24+J39+J54+J69+J85+J102+J117)</f>
+      <c r="J7" s="20">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K7" s="24">
-        <f>SUM(K24+K39+K54+K69+K85+K102+K117)</f>
+      <c r="K7" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="24">
-        <f>SUM(L24+L39+L54+L69+L85+L102+L117)</f>
+      <c r="L7" s="20">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M7" s="24">
-        <f>SUM(M24+M39+M54+M69+M85+M102+M117)</f>
+      <c r="M7" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N7" s="24">
-        <f>SUM(N24+N39+N54+N69+N85+N102+N117)</f>
+      <c r="N7" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="24">
-        <f>SUM(O24+O39+O54+O69+O85+O102+O117)</f>
+      <c r="O7" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>2018</v>
       </c>
-      <c r="G8" s="24">
-        <f>SUM(G25+G40+G55+G70+G86+G103+G118)</f>
+      <c r="G8" s="20">
+        <f t="shared" ref="G8:O8" si="4">SUM(G25+G40+G55+G70+G86+G103+G118)</f>
         <v>32</v>
       </c>
-      <c r="H8" s="24">
-        <f>SUM(H25+H40+H55+H70+H86+H103+H118)</f>
+      <c r="H8" s="20">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="I8" s="24">
-        <f>SUM(I25+I40+I55+I70+I86+I103+I118)</f>
+      <c r="I8" s="20">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J8" s="24">
-        <f>SUM(J25+J40+J55+J70+J86+J103+J118)</f>
+      <c r="J8" s="20">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K8" s="24">
-        <f>SUM(K25+K40+K55+K70+K86+K103+K118)</f>
+      <c r="K8" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="24">
-        <f>SUM(L25+L40+L55+L70+L86+L103+L118)</f>
+      <c r="L8" s="20">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M8" s="24">
-        <f>SUM(M25+M40+M55+M70+M86+M103+M118)</f>
+      <c r="M8" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N8" s="24">
-        <f>SUM(N25+N40+N55+N70+N86+N103+N118)</f>
+      <c r="N8" s="20">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O8" s="24">
-        <f>SUM(O25+O40+O55+O70+O86+O103+O118)</f>
+      <c r="O8" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>2019</v>
       </c>
-      <c r="G9" s="24">
-        <f>SUM(G26+G41+G56+G71+G87+G104+G119)</f>
+      <c r="G9" s="20">
+        <f t="shared" ref="G9:O9" si="5">SUM(G26+G41+G56+G71+G87+G104+G119)</f>
         <v>63</v>
       </c>
-      <c r="H9" s="24">
-        <f>SUM(H26+H41+H56+H71+H87+H104+H119)</f>
+      <c r="H9" s="20">
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="I9" s="24">
-        <f>SUM(I26+I41+I56+I71+I87+I104+I119)</f>
+      <c r="I9" s="20">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J9" s="24">
-        <f>SUM(J26+J41+J56+J71+J87+J104+J119)</f>
+      <c r="J9" s="20">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="K9" s="24">
-        <f>SUM(K26+K41+K56+K71+K87+K104+K119)</f>
+      <c r="K9" s="20">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9" s="24">
-        <f>SUM(L26+L41+L56+L71+L87+L104+L119)</f>
+      <c r="L9" s="20">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="M9" s="24">
-        <f>SUM(M26+M41+M56+M71+M87+M104+M119)</f>
+      <c r="M9" s="20">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="24">
-        <f>SUM(N26+N41+N56+N71+N87+N104+N119)</f>
+      <c r="N9" s="20">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="24">
-        <f>SUM(O26+O41+O56+O71+O87+O104+O119)</f>
+      <c r="O9" s="20">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F10" s="22">
+      <c r="F10" s="18">
         <v>2020</v>
       </c>
-      <c r="G10" s="24">
-        <f>SUM(G27+G42+G57+G72+G88+G105+G120)</f>
+      <c r="G10" s="20">
+        <f t="shared" ref="G10:O10" si="6">SUM(G27+G42+G57+G72+G88+G105+G120)</f>
         <v>104</v>
       </c>
-      <c r="H10" s="24">
-        <f>SUM(H27+H42+H57+H72+H88+H105+H120)</f>
+      <c r="H10" s="20">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="I10" s="24">
-        <f>SUM(I27+I42+I57+I72+I88+I105+I120)</f>
+      <c r="I10" s="20">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J10" s="24">
-        <f>SUM(J27+J42+J57+J72+J88+J105+J120)</f>
+      <c r="J10" s="20">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="K10" s="24">
-        <f>SUM(K27+K42+K57+K72+K88+K105+K120)</f>
+      <c r="K10" s="20">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L10" s="24">
-        <f>SUM(L27+L42+L57+L72+L88+L105+L120)</f>
+      <c r="L10" s="20">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="M10" s="24">
-        <f>SUM(M27+M42+M57+M72+M88+M105+M120)</f>
+      <c r="M10" s="20">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N10" s="24">
-        <f>SUM(N27+N42+N57+N72+N88+N105+N120)</f>
+      <c r="N10" s="20">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O10" s="24">
-        <f>SUM(O27+O42+O57+O72+O88+O105+O120)</f>
+      <c r="O10" s="20">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>2021</v>
       </c>
-      <c r="G11" s="24">
-        <f>SUM(G28+G43+G58+G73+G89+G106+G121)</f>
+      <c r="G11" s="20">
+        <f t="shared" ref="G11:H13" si="7">SUM(G28+G43+G58+G73+G89+G106+G121)</f>
         <v>250</v>
       </c>
-      <c r="H11" s="24">
-        <f>SUM(H28+H43+H58+H73+H89+H106+H121)</f>
+      <c r="H11" s="20">
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="20">
         <v>5</v>
       </c>
-      <c r="J11" s="24">
-        <f>SUM(J28+J43+J58+J73+J89+J106+J121)</f>
+      <c r="J11" s="20">
+        <f t="shared" ref="J11:O13" si="8">SUM(J28+J43+J58+J73+J89+J106+J121)</f>
         <v>40</v>
       </c>
-      <c r="K11" s="24">
-        <f>SUM(K28+K43+K58+K73+K89+K106+K121)</f>
+      <c r="K11" s="20">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L11" s="24">
-        <f>SUM(L28+L43+L58+L73+L89+L106+L121)</f>
+      <c r="L11" s="20">
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
-      <c r="M11" s="24">
-        <f>SUM(M28+M43+M58+M73+M89+M106+M121)</f>
+      <c r="M11" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N11" s="24">
-        <f>SUM(N28+N43+N58+N73+N89+N106+N121)</f>
+      <c r="N11" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O11" s="24">
-        <f>SUM(O28+O43+O58+O73+O89+O106+O121)</f>
+      <c r="O11" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>2022</v>
       </c>
-      <c r="G12" s="24">
-        <f>SUM(G29+G44+G59+G74+G90+G107+G122)</f>
+      <c r="G12" s="20">
+        <f t="shared" si="7"/>
         <v>306</v>
       </c>
-      <c r="H12" s="24">
-        <f>SUM(H29+H44+H59+H74+H90+H107+H122)</f>
+      <c r="H12" s="20">
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="20">
         <f>SUM(I29+I44+I59+I74+I90+I107+I122)</f>
         <v>5</v>
       </c>
-      <c r="J12" s="24">
-        <f>SUM(J29+J44+J59+J74+J90+J107+J122)</f>
+      <c r="J12" s="20">
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="K12" s="24">
-        <f>SUM(K29+K44+K59+K74+K90+K107+K122)</f>
+      <c r="K12" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L12" s="24">
-        <f>SUM(L29+L44+L59+L74+L90+L107+L122)</f>
+      <c r="L12" s="20">
+        <f t="shared" si="8"/>
         <v>131</v>
       </c>
-      <c r="M12" s="24">
-        <f>SUM(M29+M44+M59+M74+M90+M107+M122)</f>
+      <c r="M12" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N12" s="24">
-        <f>SUM(N29+N44+N59+N74+N90+N107+N122)</f>
+      <c r="N12" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O12" s="24">
-        <f>SUM(O29+O44+O59+O74+O90+O107+O122)</f>
+      <c r="O12" s="20">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F13" s="22">
+      <c r="F13" s="18">
         <v>2023</v>
       </c>
-      <c r="G13" s="24">
-        <f>SUM(G30+G45+G60+G75+G91+G108+G123)</f>
+      <c r="G13" s="20">
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
-      <c r="H13" s="24">
-        <f>SUM(H30+H45+H60+H75+H91+H108+H123)</f>
+      <c r="H13" s="20">
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="20">
         <f>SUM(I30+I45+I60+I75+I91+I108+I123)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="24">
-        <f>SUM(J30+J45+J60+J75+J91+J108+J123)</f>
+      <c r="J13" s="20">
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="K13" s="24">
-        <f>SUM(K30+K45+K60+K75+K91+K108+K123)</f>
+      <c r="K13" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L13" s="24">
-        <f>SUM(L30+L45+L60+L75+L91+L108+L123)</f>
+      <c r="L13" s="20">
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="M13" s="24">
-        <f>SUM(M30+M45+M60+M75+M91+M108+M123)</f>
+      <c r="M13" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N13" s="24">
-        <f>SUM(N30+N45+N60+N75+N91+N108+N123)</f>
+      <c r="N13" s="20">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O13" s="24">
-        <f>SUM(O30+O45+O60+O75+O91+O108+O123)</f>
+      <c r="O13" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="20">
         <f>SUM(G4:G13)</f>
         <v>927</v>
       </c>
-      <c r="H14" s="24">
-        <f t="shared" ref="H14:O14" si="0">SUM(H4:H13)</f>
+      <c r="H14" s="20">
+        <f t="shared" ref="H14:O14" si="9">SUM(H4:H13)</f>
         <v>450</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="20">
         <f>SUM(I4:I13)</f>
         <v>17</v>
       </c>
-      <c r="J14" s="24">
-        <f t="shared" si="0"/>
+      <c r="J14" s="20">
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="20">
         <f>SUM(K4:K13)</f>
         <v>1</v>
       </c>
-      <c r="L14" s="24">
-        <f t="shared" si="0"/>
+      <c r="L14" s="20">
+        <f t="shared" si="9"/>
         <v>312</v>
       </c>
-      <c r="M14" s="24">
-        <f t="shared" si="0"/>
+      <c r="M14" s="20">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="20">
         <f>SUM(N4:N13)</f>
         <v>2</v>
       </c>
-      <c r="O14" s="24">
-        <f t="shared" si="0"/>
+      <c r="O14" s="20">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
     </row>
     <row r="18" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15" t="s">
+      <c r="M19" s="39"/>
+      <c r="N19" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="O19" s="15"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F21" s="17">
+      <c r="F21" s="12">
         <v>2014</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="12">
         <f>SUM(H21+J21+L21+N21)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12">
         <v>1</v>
       </c>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F22" s="17">
+      <c r="F22" s="12">
         <v>2015</v>
       </c>
-      <c r="G22" s="17">
-        <f t="shared" ref="G22:G30" si="1">SUM(H22+J22+L22+N22)</f>
+      <c r="G22" s="12">
+        <f t="shared" ref="G22:G30" si="10">SUM(H22+J22+L22+N22)</f>
         <v>1</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12">
         <v>1</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F23" s="17">
+      <c r="F23" s="12">
         <v>2016</v>
       </c>
-      <c r="G23" s="17">
-        <f t="shared" si="1"/>
+      <c r="G23" s="12">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12">
         <v>1</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="AC23" s="31" t="s">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="AC23" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28"/>
+      <c r="AT23" s="28"/>
+      <c r="AU23" s="28"/>
+      <c r="AV23" s="28"/>
+      <c r="AW23" s="28"/>
+      <c r="AX23" s="28"/>
+      <c r="AY23" s="28"/>
     </row>
     <row r="24" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F24" s="17">
+      <c r="F24" s="12">
         <v>2017</v>
       </c>
-      <c r="G24" s="17">
-        <f t="shared" si="1"/>
+      <c r="G24" s="12">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12">
         <v>1</v>
       </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
       <c r="AB24" s="2">
         <v>1</v>
       </c>
-      <c r="AC24" s="33" t="s">
+      <c r="AC24" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="32"/>
-      <c r="AW24" s="32"/>
-      <c r="AX24" s="32"/>
-      <c r="AY24" s="32"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
     </row>
     <row r="25" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F25" s="17">
+      <c r="F25" s="12">
         <v>2018</v>
       </c>
-      <c r="G25" s="17">
-        <f t="shared" si="1"/>
+      <c r="G25" s="12">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12">
         <v>1</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17">
+      <c r="K25" s="12"/>
+      <c r="L25" s="12">
         <v>6</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12">
         <v>1</v>
       </c>
-      <c r="O25" s="17"/>
+      <c r="O25" s="12"/>
       <c r="AB25" s="2">
         <v>2</v>
       </c>
-      <c r="AC25" s="34" t="s">
+      <c r="AC25" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="32"/>
-      <c r="AV25" s="32"/>
-      <c r="AW25" s="32"/>
-      <c r="AX25" s="32"/>
-      <c r="AY25" s="32"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
     </row>
     <row r="26" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F26" s="17">
+      <c r="F26" s="12">
         <v>2019</v>
       </c>
-      <c r="G26" s="17">
-        <f t="shared" si="1"/>
+      <c r="G26" s="12">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12">
         <v>1</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="12">
         <v>3</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12">
         <v>9</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
       <c r="AB26" s="2">
         <v>3</v>
       </c>
-      <c r="AC26" s="34" t="s">
+      <c r="AC26" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="32"/>
-      <c r="AY26" s="32"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+      <c r="AY26" s="28"/>
     </row>
     <row r="27" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F27" s="17">
+      <c r="F27" s="12">
         <v>2020</v>
       </c>
-      <c r="G27" s="17">
-        <f t="shared" si="1"/>
+      <c r="G27" s="12">
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="12">
         <v>3</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="12">
         <v>2</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="12">
         <v>12</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17">
+      <c r="K27" s="12"/>
+      <c r="L27" s="12">
         <v>20</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
       <c r="AB27" s="2">
         <v>4</v>
       </c>
-      <c r="AC27" s="34" t="s">
+      <c r="AC27" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="32"/>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="32"/>
-      <c r="AY27" s="32"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="28"/>
+      <c r="AU27" s="28"/>
+      <c r="AV27" s="28"/>
+      <c r="AW27" s="28"/>
+      <c r="AX27" s="28"/>
+      <c r="AY27" s="28"/>
     </row>
     <row r="28" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F28" s="17">
+      <c r="F28" s="12">
         <v>2021</v>
       </c>
-      <c r="G28" s="17">
-        <f t="shared" si="1"/>
+      <c r="G28" s="12">
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="12">
         <v>3</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="12">
         <v>1</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="12">
         <v>35</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="12">
         <v>1</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="12">
         <v>87</v>
       </c>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
       <c r="AB28" s="2">
         <v>5</v>
       </c>
-      <c r="AC28" s="34" t="s">
+      <c r="AC28" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="32"/>
-      <c r="AY28" s="32"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="28"/>
+      <c r="AU28" s="28"/>
+      <c r="AV28" s="28"/>
+      <c r="AW28" s="28"/>
+      <c r="AX28" s="28"/>
+      <c r="AY28" s="28"/>
     </row>
     <row r="29" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F29" s="17">
+      <c r="F29" s="12">
         <v>2022</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="12">
         <f>SUM(H29+J29+L29+N29)</f>
         <v>180</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="12">
         <v>4</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="12">
         <v>1</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="12">
         <v>45</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17">
+      <c r="K29" s="12"/>
+      <c r="L29" s="12">
         <v>131</v>
       </c>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
       <c r="AB29" s="2">
         <v>6</v>
       </c>
-      <c r="AC29" s="34" t="s">
+      <c r="AC29" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="32"/>
-      <c r="AW29" s="32"/>
-      <c r="AX29" s="32"/>
-      <c r="AY29" s="32"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28"/>
+      <c r="AQ29" s="28"/>
+      <c r="AR29" s="28"/>
+      <c r="AS29" s="28"/>
+      <c r="AT29" s="28"/>
+      <c r="AU29" s="28"/>
+      <c r="AV29" s="28"/>
+      <c r="AW29" s="28"/>
+      <c r="AX29" s="28"/>
+      <c r="AY29" s="28"/>
     </row>
     <row r="30" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F30" s="17">
+      <c r="F30" s="12">
         <v>2023</v>
       </c>
-      <c r="G30" s="17">
-        <f t="shared" si="1"/>
+      <c r="G30" s="12">
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="12">
         <v>8</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17">
+      <c r="I30" s="12"/>
+      <c r="J30" s="12">
         <v>15</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12">
         <v>52</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
       <c r="AB30" s="2">
         <v>7</v>
       </c>
-      <c r="AC30" s="34" t="s">
+      <c r="AC30" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="32"/>
-      <c r="AU30" s="32"/>
-      <c r="AV30" s="32"/>
-      <c r="AW30" s="32"/>
-      <c r="AX30" s="32"/>
-      <c r="AY30" s="32"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28"/>
+      <c r="AP30" s="28"/>
+      <c r="AQ30" s="28"/>
+      <c r="AR30" s="28"/>
+      <c r="AS30" s="28"/>
+      <c r="AT30" s="28"/>
+      <c r="AU30" s="28"/>
+      <c r="AV30" s="28"/>
+      <c r="AW30" s="28"/>
+      <c r="AX30" s="28"/>
+      <c r="AY30" s="28"/>
     </row>
     <row r="31" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="AC31" s="31" t="s">
+      <c r="AC31" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
-      <c r="AU31" s="32"/>
-      <c r="AV31" s="32"/>
-      <c r="AW31" s="32"/>
-      <c r="AX31" s="32"/>
-      <c r="AY31" s="32"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="28"/>
+      <c r="AQ31" s="28"/>
+      <c r="AR31" s="28"/>
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="28"/>
+      <c r="AU31" s="28"/>
+      <c r="AV31" s="28"/>
+      <c r="AW31" s="28"/>
+      <c r="AX31" s="28"/>
+      <c r="AY31" s="28"/>
     </row>
     <row r="32" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-      <c r="AO32" s="35"/>
-      <c r="AP32" s="35"/>
-      <c r="AQ32" s="35"/>
-      <c r="AR32" s="35"/>
-      <c r="AS32" s="35"/>
-      <c r="AT32" s="35"/>
-      <c r="AU32" s="35"/>
-      <c r="AV32" s="35"/>
-      <c r="AW32" s="35"/>
-      <c r="AX32" s="35"/>
-      <c r="AY32" s="35"/>
-    </row>
-    <row r="33" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F33" s="20" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F33" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
-      <c r="AP33" s="35"/>
-      <c r="AQ33" s="35"/>
-      <c r="AR33" s="35"/>
-      <c r="AS33" s="35"/>
-      <c r="AT33" s="35"/>
-      <c r="AU33" s="35"/>
-      <c r="AV33" s="35"/>
-      <c r="AW33" s="35"/>
-      <c r="AX33" s="35"/>
-      <c r="AY33" s="35"/>
-    </row>
-    <row r="34" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="15" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15" t="s">
+      <c r="I34" s="39"/>
+      <c r="J34" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15" t="s">
+      <c r="K34" s="39"/>
+      <c r="L34" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15" t="s">
+      <c r="M34" s="39"/>
+      <c r="N34" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="O34" s="15"/>
+      <c r="O34" s="39"/>
       <c r="Y34" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F35" s="17" t="s">
+    <row r="35" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O35" s="17" t="s">
+      <c r="O35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14" t="s">
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="AA35" s="14" t="s">
+      <c r="AA35" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AB35" s="14">
+      <c r="AB35" s="11">
         <v>1</v>
       </c>
-      <c r="AC35" s="14">
+      <c r="AC35" s="11">
         <v>2</v>
       </c>
-      <c r="AD35" s="14">
+      <c r="AD35" s="11">
         <v>3</v>
       </c>
-      <c r="AE35" s="14">
+      <c r="AE35" s="11">
         <v>4</v>
       </c>
-      <c r="AF35" s="14">
+      <c r="AF35" s="11">
         <v>5</v>
       </c>
-      <c r="AG35" s="14">
+      <c r="AG35" s="11">
         <v>6</v>
       </c>
-      <c r="AH35" s="14">
+      <c r="AH35" s="11">
         <v>7</v>
       </c>
-      <c r="AI35" s="14"/>
-    </row>
-    <row r="36" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F36" s="17">
+      <c r="AI35" s="11"/>
+    </row>
+    <row r="36" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F36" s="12">
         <v>2014</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="12">
         <f>SUM(H36+J36+L36+N36)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="Q36" s="14">
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="Q36" s="11">
         <v>1</v>
       </c>
-      <c r="R36" s="38" t="s">
+      <c r="R36" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="S36" s="37" t="s">
+      <c r="S36" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="39" t="s">
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="Z36" s="14">
+      <c r="Z36" s="11">
         <v>5</v>
       </c>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="14" t="s">
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC36" s="14" t="s">
+      <c r="AC36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14" t="s">
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="14" t="s">
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AI36" s="14" t="str">
+      <c r="AI36" s="11" t="str">
         <f>IF(AA36="y"," $^{\ast}$ &amp; "," &amp; ")</f>
         <v xml:space="preserve"> &amp; </v>
       </c>
@@ -3625,1345 +3573,1345 @@
         <v>1 &amp; 2021 &amp; Zhu et al.~\cite[]{introduction_to_robot_system_security_2021} &amp; X &amp; X &amp;  &amp;  &amp; X &amp;  &amp; X \\\hline</v>
       </c>
     </row>
-    <row r="37" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F37" s="17">
+    <row r="37" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F37" s="12">
         <v>2015</v>
       </c>
-      <c r="G37" s="17">
-        <f t="shared" ref="G37:G45" si="2">SUM(H37+J37+L37+N37)</f>
+      <c r="G37" s="12">
+        <f t="shared" ref="G37:G44" si="11">SUM(H37+J37+L37+N37)</f>
         <v>2</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17">
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12">
         <v>2</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="Q37" s="14">
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="Q37" s="11">
         <v>2</v>
       </c>
-      <c r="R37" s="41" t="s">
+      <c r="R37" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="S37" s="37" t="s">
+      <c r="S37" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="39" t="s">
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="Z37" s="14">
+      <c r="Z37" s="11">
         <v>5</v>
       </c>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14" t="s">
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC37" s="14" t="s">
+      <c r="AC37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14" t="s">
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AI37" s="14" t="str">
-        <f t="shared" ref="AI37:AI100" si="3">IF(AA37="y"," $^{\ast}$ &amp; "," &amp; ")</f>
+      <c r="AI37" s="11" t="str">
+        <f t="shared" ref="AI37:AI100" si="12">IF(AA37="y"," $^{\ast}$ &amp; "," &amp; ")</f>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK37" s="2" t="str">
-        <f t="shared" ref="AK37:AK92" si="4">Q37&amp;AI37&amp;RIGHT(S37,4)&amp;" &amp; "&amp;Y37&amp;""&amp;"~\cite[]{"&amp;S37&amp;"}"&amp;" &amp; "&amp;AB37&amp;" &amp; "&amp;AC37&amp;" &amp; "&amp;AD37&amp;" &amp; "&amp;AE37&amp;" &amp; "&amp;AF37&amp;" &amp; "&amp;AG37&amp;" &amp; "&amp;AH37&amp;" \\\hline"</f>
+        <f t="shared" ref="AK37:AK92" si="13">Q37&amp;AI37&amp;RIGHT(S37,4)&amp;" &amp; "&amp;Y37&amp;""&amp;"~\cite[]{"&amp;S37&amp;"}"&amp;" &amp; "&amp;AB37&amp;" &amp; "&amp;AC37&amp;" &amp; "&amp;AD37&amp;" &amp; "&amp;AE37&amp;" &amp; "&amp;AF37&amp;" &amp; "&amp;AG37&amp;" &amp; "&amp;AH37&amp;" \\\hline"</f>
         <v>2 &amp; 2021 &amp; Fosch-Villaronga et al.~\cite[]{cyber_sec_safet_robots_legal_2021} &amp; X &amp; X &amp;  &amp;  &amp;  &amp;  &amp; X \\\hline</v>
       </c>
     </row>
-    <row r="38" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F38" s="17">
+    <row r="38" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F38" s="12">
         <v>2016</v>
       </c>
-      <c r="G38" s="17">
-        <f t="shared" si="2"/>
+      <c r="G38" s="12">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="Q38" s="14">
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="Q38" s="11">
         <v>3</v>
       </c>
-      <c r="R38" s="41" t="s">
+      <c r="R38" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="S38" s="37" t="s">
+      <c r="S38" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="36" t="s">
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="Z38" s="14">
+      <c r="Z38" s="11">
         <v>5</v>
       </c>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14" t="s">
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AH38" s="14" t="s">
+      <c r="AH38" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AI38" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI38" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK38" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3 &amp; 2022 &amp; Verizon~\cite[]{dbir_2022} &amp;  &amp;  &amp;  &amp;  &amp;  &amp; X &amp; X \\\hline</v>
       </c>
     </row>
-    <row r="39" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F39" s="17">
+    <row r="39" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F39" s="12">
         <v>2017</v>
       </c>
-      <c r="G39" s="17">
-        <f t="shared" si="2"/>
+      <c r="G39" s="12">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="12">
         <v>1</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="12">
         <v>1</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="Q39" s="14">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="Q39" s="11">
         <v>4</v>
       </c>
-      <c r="R39" s="41" t="s">
+      <c r="R39" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="S39" s="37" t="s">
+      <c r="S39" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="39" t="s">
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="Z39" s="14">
+      <c r="Z39" s="11">
         <v>5</v>
       </c>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="14" t="s">
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14" t="s">
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK39" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4 &amp; 2021 &amp; Lacava et al.~\cite[]{cyber_security_issues_in_robotics_2021} &amp; X &amp;  &amp;  &amp;  &amp;  &amp; X &amp;  \\\hline</v>
       </c>
     </row>
-    <row r="40" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F40" s="17">
+    <row r="40" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F40" s="12">
         <v>2018</v>
       </c>
-      <c r="G40" s="17">
-        <f t="shared" si="2"/>
+      <c r="G40" s="12">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="12">
         <v>2</v>
       </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="Q40" s="14">
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="Q40" s="11">
         <v>5</v>
       </c>
-      <c r="R40" s="38" t="s">
+      <c r="R40" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="S40" s="37" t="s">
+      <c r="S40" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="39" t="s">
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="Z40" s="14">
+      <c r="Z40" s="11">
         <v>5</v>
       </c>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="14" t="s">
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC40" s="14" t="s">
+      <c r="AC40" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AD40" s="14" t="s">
+      <c r="AD40" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14" t="s">
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AG40" s="14" t="s">
+      <c r="AG40" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AH40" s="14" t="s">
+      <c r="AH40" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AI40" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI40" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK40" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5 &amp; 2022 &amp; Yaacoub et al.~\cite[]{robotics_cyber_security_2022} &amp; X &amp; X &amp; X &amp;  &amp; X &amp; X &amp; X \\\hline</v>
       </c>
     </row>
-    <row r="41" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F41" s="17">
+    <row r="41" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F41" s="12">
         <v>2019</v>
       </c>
-      <c r="G41" s="17">
-        <f t="shared" si="2"/>
+      <c r="G41" s="12">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17">
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12">
         <v>2</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="Q41" s="14">
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="Q41" s="11">
         <v>6</v>
       </c>
-      <c r="R41" s="38" t="s">
+      <c r="R41" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="S41" s="37" t="s">
+      <c r="S41" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="39" t="s">
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="Z41" s="14">
+      <c r="Z41" s="11">
         <v>5</v>
       </c>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14" t="s">
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AG41" s="14" t="s">
+      <c r="AG41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK41" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>6 &amp; 2020 &amp; Pessoa et al.~\cite[]{smart_design_engineering_2020} &amp;  &amp;  &amp;  &amp;  &amp; X &amp; X &amp;  \\\hline</v>
       </c>
     </row>
-    <row r="42" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F42" s="17">
+    <row r="42" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F42" s="12">
         <v>2020</v>
       </c>
-      <c r="G42" s="17">
-        <f t="shared" si="2"/>
+      <c r="G42" s="12">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="Q42" s="14">
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="Q42" s="11">
         <v>7</v>
       </c>
-      <c r="R42" s="42" t="s">
+      <c r="R42" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="S42" s="37" t="s">
+      <c r="S42" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="36" t="s">
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="Z42" s="14">
+      <c r="Z42" s="11">
         <v>5</v>
       </c>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14" t="s">
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC42" s="14" t="s">
+      <c r="AC42" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14" t="s">
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AI42" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI42" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK42" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>7 &amp; 2021 &amp; Villaronga et al.~\cite[]{cyber_sec_safety_robots_legal_2021} &amp; X &amp; X &amp;  &amp;  &amp;  &amp;  &amp; X \\\hline</v>
       </c>
     </row>
-    <row r="43" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F43" s="17">
+    <row r="43" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F43" s="12">
         <v>2021</v>
       </c>
-      <c r="G43" s="17">
-        <f t="shared" si="2"/>
+      <c r="G43" s="12">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="12">
         <v>2</v>
       </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17">
+      <c r="I43" s="12"/>
+      <c r="J43" s="12">
         <v>1</v>
       </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="Q43" s="14">
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="Q43" s="11">
         <v>8</v>
       </c>
-      <c r="R43" s="42" t="s">
+      <c r="R43" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="S43" s="37" t="s">
+      <c r="S43" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="39" t="s">
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="Z43" s="14">
+      <c r="Z43" s="11">
         <v>5</v>
       </c>
-      <c r="AA43" s="14" t="s">
+      <c r="AA43" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB43" s="14" t="s">
+      <c r="AB43" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC43" s="14" t="s">
+      <c r="AC43" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AD43" s="14" t="s">
+      <c r="AD43" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14" t="s">
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK43" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>8 $^{\ast}$ &amp; 2017 &amp; Lera et al.~\cite[]{cyber_sec_robotics_privacy_safety_2017} &amp; X &amp; X &amp; X &amp;  &amp;  &amp; X &amp;  \\\hline</v>
       </c>
     </row>
-    <row r="44" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F44" s="17">
+    <row r="44" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F44" s="12">
         <v>2022</v>
       </c>
-      <c r="G44" s="17">
-        <f t="shared" si="2"/>
+      <c r="G44" s="12">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="12">
         <v>2</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17">
+      <c r="I44" s="12"/>
+      <c r="J44" s="12">
         <v>5</v>
       </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="Q44" s="14">
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="Q44" s="11">
         <v>9</v>
       </c>
-      <c r="R44" s="42" t="s">
+      <c r="R44" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="S44" s="37" t="s">
+      <c r="S44" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="36" t="s">
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="Z44" s="14">
+      <c r="Z44" s="11">
         <v>5</v>
       </c>
-      <c r="AA44" s="14" t="s">
+      <c r="AA44" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14" t="s">
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK44" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>9 $^{\ast}$ &amp; 2016 &amp; Sabine et al.~\cite[]{if_robots_cause_harm_2016} &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
-    <row r="45" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F45" s="17">
+    <row r="45" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F45" s="12">
         <v>2023</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="12">
         <f>SUM(H45+J45+L45+N45)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="Q45" s="14">
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="Q45" s="11">
         <v>10</v>
       </c>
-      <c r="R45" s="42" t="s">
+      <c r="R45" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="S45" s="37" t="s">
+      <c r="S45" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="36" t="s">
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="Z45" s="14">
+      <c r="Z45" s="11">
         <v>5</v>
       </c>
-      <c r="AA45" s="14" t="s">
+      <c r="AA45" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB45" s="14" t="s">
+      <c r="AB45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC45" s="14" t="s">
+      <c r="AC45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AD45" s="14" t="s">
+      <c r="AD45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AE45" s="14" t="s">
+      <c r="AE45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="14" t="s">
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AI45" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI45" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK45" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>10 $^{\ast}$ &amp; 2018 &amp; Ahmad et al.~\cite[]{analyzing_cyber_physical_threats_2018} &amp; X &amp; X &amp; X &amp; X &amp;  &amp;  &amp; X \\\hline</v>
       </c>
     </row>
-    <row r="46" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="Q46" s="14">
+    <row r="46" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="Q46" s="11">
         <v>11</v>
       </c>
-      <c r="R46" s="43" t="s">
+      <c r="R46" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="S46" s="37" t="s">
+      <c r="S46" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="36" t="s">
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="Z46" s="11">
         <v>5</v>
       </c>
-      <c r="AA46" s="14" t="s">
+      <c r="AA46" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB46" s="14" t="s">
+      <c r="AB46" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14" t="s">
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
-      <c r="AI46" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK46" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>11 $^{\ast}$ &amp; 2017 &amp; Portugal et al.~\cite[]{role_of_security_in_human_robot_2017} &amp; X &amp;  &amp; X &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
-    <row r="47" spans="6:51" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:37" x14ac:dyDescent="0.3">
       <c r="F47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="Q47" s="14">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="Q47" s="11">
         <v>12</v>
       </c>
-      <c r="R47" s="36" t="s">
+      <c r="R47" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="S47" s="37" t="s">
+      <c r="S47" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="36" t="s">
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="Z47" s="11">
         <v>5</v>
       </c>
-      <c r="AA47" s="14" t="s">
+      <c r="AA47" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB47" s="14" t="s">
+      <c r="AB47" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
-      <c r="AE47" s="14" t="s">
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="14"/>
-      <c r="AI47" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK47" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>12 $^{\ast}$ &amp; 2022 &amp; Lei et al.~\cite[]{acceptance_telepresence_robots_2022} &amp; X &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
-    <row r="48" spans="6:51" x14ac:dyDescent="0.3">
-      <c r="F48" s="20" t="s">
+    <row r="48" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F48" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="Q48" s="14">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="Q48" s="11">
         <v>13</v>
       </c>
-      <c r="R48" s="36" t="s">
+      <c r="R48" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="S48" s="37" t="s">
+      <c r="S48" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="39" t="s">
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="Z48" s="14">
+      <c r="Z48" s="11">
         <v>5</v>
       </c>
-      <c r="AA48" s="40" t="s">
+      <c r="AA48" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14" t="s">
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK48" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>13 $^{\ast}$ &amp; 2022 &amp; Leoste et al.~\cite[]{higher_edu_perception_on_tprs_2022} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="49" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="15" t="s">
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15" t="s">
+      <c r="I49" s="39"/>
+      <c r="J49" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15" t="s">
+      <c r="K49" s="39"/>
+      <c r="L49" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15" t="s">
+      <c r="M49" s="39"/>
+      <c r="N49" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="O49" s="15"/>
-      <c r="Q49" s="14">
+      <c r="O49" s="39"/>
+      <c r="Q49" s="11">
         <v>14</v>
       </c>
-      <c r="R49" s="38" t="s">
+      <c r="R49" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="S49" s="37" t="s">
+      <c r="S49" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="39" t="s">
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="Z49" s="14">
+      <c r="Z49" s="11">
         <v>5</v>
       </c>
-      <c r="AA49" s="40" t="s">
+      <c r="AA49" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="AB49" s="14" t="s">
+      <c r="AB49" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AC49" s="14" t="s">
+      <c r="AC49" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK49" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>14 $^{\ast}$ &amp; 2018 &amp; Vilches et al.~\cite[]{robot_security_framework_2018} &amp; X &amp; X &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="50" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="I50" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J50" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="K50" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N50" s="17" t="s">
+      <c r="N50" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O50" s="17" t="s">
+      <c r="O50" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="Q50" s="14">
+      <c r="Q50" s="11">
         <v>15</v>
       </c>
-      <c r="R50" s="41" t="s">
+      <c r="R50" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="S50" s="37" t="s">
+      <c r="S50" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="39" t="s">
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="Z50" s="14">
+      <c r="Z50" s="11">
         <v>5</v>
       </c>
-      <c r="AA50" s="14" t="s">
+      <c r="AA50" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="14" t="s">
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14" t="s">
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="14"/>
-      <c r="AI50" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK50" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>15 $^{\ast}$ &amp; 2022 &amp; Mayoral-Vilches~\cite[]{robot_security_review_2022} &amp;  &amp;  &amp; X &amp;  &amp; X &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="51" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F51" s="17">
+      <c r="F51" s="12">
         <v>2014</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="12">
         <f>SUM(H51+J51+L51+N51)</f>
         <v>8</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="12">
         <v>2</v>
       </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17">
+      <c r="I51" s="12"/>
+      <c r="J51" s="12">
         <v>6</v>
       </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="Q51" s="14">
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="Q51" s="11">
         <v>16</v>
       </c>
-      <c r="R51" s="38" t="s">
+      <c r="R51" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="S51" s="37" t="s">
+      <c r="S51" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="39" t="s">
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="Z51" s="14">
+      <c r="Z51" s="11">
         <v>5</v>
       </c>
-      <c r="AA51" s="14" t="s">
+      <c r="AA51" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14" t="s">
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14" t="s">
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AI51" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI51" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK51" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>16 $^{\ast}$ &amp; 2020 &amp; Singar et al.~\cite[]{role_of_cyber_security_in_higher_edu_2020} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp; X \\\hline</v>
       </c>
     </row>
     <row r="52" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F52" s="17">
+      <c r="F52" s="12">
         <v>2015</v>
       </c>
-      <c r="G52" s="17">
-        <f t="shared" ref="G52:G60" si="5">SUM(H52+J52+L52+N52)</f>
+      <c r="G52" s="12">
+        <f t="shared" ref="G52:G60" si="14">SUM(H52+J52+L52+N52)</f>
         <v>3</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="12">
         <v>1</v>
       </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17">
+      <c r="I52" s="12"/>
+      <c r="J52" s="12">
         <v>1</v>
       </c>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17">
+      <c r="K52" s="12"/>
+      <c r="L52" s="12">
         <v>1</v>
       </c>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="Q52" s="14">
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="Q52" s="11">
         <v>17</v>
       </c>
-      <c r="R52" s="38" t="s">
+      <c r="R52" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="S52" s="37" t="s">
+      <c r="S52" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="39" t="s">
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="Z52" s="14">
+      <c r="Z52" s="11">
         <v>5</v>
       </c>
-      <c r="AA52" s="14" t="s">
+      <c r="AA52" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB52" s="14"/>
-      <c r="AC52" s="14"/>
-      <c r="AD52" s="14"/>
-      <c r="AE52" s="14" t="s">
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AF52" s="14"/>
-      <c r="AG52" s="14"/>
-      <c r="AH52" s="14"/>
-      <c r="AI52" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK52" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>17 $^{\ast}$ &amp; 2019 &amp; Reis et al.~\cite[]{telepresence_robots_in_classroom_2019} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="53" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F53" s="17">
+      <c r="F53" s="12">
         <v>2016</v>
       </c>
-      <c r="G53" s="17">
-        <f t="shared" si="5"/>
+      <c r="G53" s="12">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="12">
         <v>2</v>
       </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="Q53" s="14">
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="Q53" s="11">
         <v>18</v>
       </c>
-      <c r="R53" s="41" t="s">
+      <c r="R53" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="S53" s="37" t="s">
+      <c r="S53" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="36" t="s">
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="Z53" s="14">
+      <c r="Z53" s="11">
         <v>5</v>
       </c>
-      <c r="AA53" s="14" t="s">
+      <c r="AA53" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="14" t="s">
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK53" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>18 $^{\ast}$ &amp; 2022 &amp; Virkus et al.~\cite[]{telepresence_perspective_psychology_educational_2022} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="54" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F54" s="17">
+      <c r="F54" s="12">
         <v>2017</v>
       </c>
-      <c r="G54" s="17">
-        <f t="shared" si="5"/>
+      <c r="G54" s="12">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="12">
         <v>4</v>
       </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17">
+      <c r="I54" s="12"/>
+      <c r="J54" s="12">
         <v>4</v>
       </c>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="Q54" s="14">
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="Q54" s="11">
         <v>19</v>
       </c>
-      <c r="R54" s="38" t="s">
+      <c r="R54" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="S54" s="37" t="s">
+      <c r="S54" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="36" t="s">
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="Z54" s="14">
+      <c r="Z54" s="11">
         <v>5</v>
       </c>
-      <c r="AA54" s="14" t="s">
+      <c r="AA54" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14" t="s">
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> $^{\ast}$ &amp; </v>
       </c>
       <c r="AK54" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>19 $^{\ast}$ &amp; 2021 &amp; Gupta et al.~\cite[]{humans_and_robots_relation_2021} &amp;  &amp;  &amp;  &amp; X &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="55" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F55" s="17">
+      <c r="F55" s="12">
         <v>2018</v>
       </c>
-      <c r="G55" s="17">
-        <f t="shared" si="5"/>
+      <c r="G55" s="12">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="12">
         <v>2</v>
       </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17">
+      <c r="I55" s="12"/>
+      <c r="J55" s="12">
         <v>1</v>
       </c>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="Q55" s="14">
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="Q55" s="11">
         <v>20</v>
       </c>
-      <c r="AI55" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI55" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK55" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>20 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="56" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F56" s="17">
+      <c r="F56" s="12">
         <v>2019</v>
       </c>
-      <c r="G56" s="17">
-        <f t="shared" si="5"/>
+      <c r="G56" s="12">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="12">
         <v>2</v>
       </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17">
+      <c r="I56" s="12"/>
+      <c r="J56" s="12">
         <v>5</v>
       </c>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="Q56" s="14">
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="Q56" s="11">
         <v>21</v>
       </c>
-      <c r="R56" s="14"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="14"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="14"/>
-      <c r="AC56" s="14"/>
-      <c r="AD56" s="14"/>
-      <c r="AE56" s="14"/>
-      <c r="AF56" s="14"/>
-      <c r="AG56" s="14"/>
-      <c r="AH56" s="14"/>
-      <c r="AI56" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK56" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>21 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="57" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F57" s="17">
+      <c r="F57" s="12">
         <v>2020</v>
       </c>
-      <c r="G57" s="17">
-        <f t="shared" si="5"/>
+      <c r="G57" s="12">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="12">
         <v>5</v>
       </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17">
+      <c r="I57" s="12"/>
+      <c r="J57" s="12">
         <v>1</v>
       </c>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="Q57" s="14">
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="Q57" s="11">
         <v>22</v>
       </c>
-      <c r="R57" s="14"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="14"/>
-      <c r="AA57" s="14"/>
-      <c r="AB57" s="14"/>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="14"/>
-      <c r="AE57" s="14"/>
-      <c r="AF57" s="14"/>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="14"/>
-      <c r="AI57" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK57" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>22 &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="58" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F58" s="17">
+      <c r="F58" s="12">
         <v>2021</v>
       </c>
-      <c r="G58" s="17">
-        <f t="shared" si="5"/>
+      <c r="G58" s="12">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="12">
         <v>6</v>
       </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17">
+      <c r="I58" s="12"/>
+      <c r="J58" s="12">
         <v>2</v>
       </c>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="AI58" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="AI58" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK58" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="59" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F59" s="17">
+      <c r="F59" s="12">
         <v>2022</v>
       </c>
-      <c r="G59" s="17">
-        <f t="shared" si="5"/>
+      <c r="G59" s="12">
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="12">
         <v>6</v>
       </c>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17">
+      <c r="I59" s="12"/>
+      <c r="J59" s="12">
         <v>4</v>
       </c>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="AI59" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="AI59" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK59" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="60" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F60" s="17">
+      <c r="F60" s="12">
         <v>2023</v>
       </c>
-      <c r="G60" s="17">
-        <f t="shared" si="5"/>
+      <c r="G60" s="12">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17">
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12">
         <v>1</v>
       </c>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="AI60" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
+      <c r="AI60" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK60" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="61" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="AI61" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
+      <c r="AI61" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK61" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
@@ -4971,516 +4919,516 @@
       <c r="F62" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="AI62" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="AI62" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK62" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="63" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="AI63" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="AI63" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK63" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="64" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="15" t="s">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15" t="s">
+      <c r="I64" s="39"/>
+      <c r="J64" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15" t="s">
+      <c r="K64" s="39"/>
+      <c r="L64" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15" t="s">
+      <c r="M64" s="39"/>
+      <c r="N64" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="O64" s="15"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="AI64" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="O64" s="39"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
+      <c r="AI64" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK64" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="65" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I65" s="17" t="s">
+      <c r="I65" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J65" s="17" t="s">
+      <c r="J65" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K65" s="17" t="s">
+      <c r="K65" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L65" s="17" t="s">
+      <c r="L65" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="M65" s="17" t="s">
+      <c r="M65" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N65" s="17" t="s">
+      <c r="N65" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O65" s="17" t="s">
+      <c r="O65" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="AI65" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
+      <c r="AI65" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK65" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="66" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F66" s="17">
+      <c r="F66" s="12">
         <v>2014</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="12">
         <f>SUM(H66+J66+L66+N66)</f>
         <v>3</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="12">
         <v>2</v>
       </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17">
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12">
         <v>1</v>
       </c>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
       <c r="R66" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S66" s="37" t="s">
+      <c r="S66" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="AI66" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
+      <c r="AI66" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK66" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp; 2004 &amp; ~\cite[]{systematic_review_2004} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="67" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F67" s="17">
+      <c r="F67" s="12">
         <v>2015</v>
       </c>
-      <c r="G67" s="17">
-        <f t="shared" ref="G67:G75" si="6">SUM(H67+J67+L67+N67)</f>
+      <c r="G67" s="12">
+        <f t="shared" ref="G67:G75" si="15">SUM(H67+J67+L67+N67)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="AI67" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
+      <c r="AI67" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK67" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="68" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F68" s="17">
+      <c r="F68" s="12">
         <v>2016</v>
       </c>
-      <c r="G68" s="17">
-        <f t="shared" si="6"/>
+      <c r="G68" s="12">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="25"/>
-      <c r="V68" s="25"/>
-      <c r="W68" s="25"/>
-      <c r="X68" s="25"/>
-      <c r="AI68" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="21"/>
+      <c r="X68" s="21"/>
+      <c r="AI68" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK68" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="69" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F69" s="17">
+      <c r="F69" s="12">
         <v>2017</v>
       </c>
-      <c r="G69" s="17">
-        <f t="shared" si="6"/>
+      <c r="G69" s="12">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="12">
         <v>1</v>
       </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17">
+      <c r="I69" s="12"/>
+      <c r="J69" s="12">
         <v>1</v>
       </c>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="25"/>
-      <c r="W69" s="25"/>
-      <c r="X69" s="25"/>
-      <c r="AI69" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="AI69" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK69" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="70" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F70" s="17">
+      <c r="F70" s="12">
         <v>2018</v>
       </c>
-      <c r="G70" s="17">
-        <f t="shared" si="6"/>
+      <c r="G70" s="12">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="12">
         <v>1</v>
       </c>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17">
+      <c r="I70" s="12"/>
+      <c r="J70" s="12">
         <v>1</v>
       </c>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="S70" s="25"/>
-      <c r="T70" s="25"/>
-      <c r="U70" s="25"/>
-      <c r="V70" s="25"/>
-      <c r="W70" s="25"/>
-      <c r="X70" s="25"/>
-      <c r="AI70" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+      <c r="AI70" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK70" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="71" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F71" s="17">
+      <c r="F71" s="12">
         <v>2019</v>
       </c>
-      <c r="G71" s="17">
-        <f t="shared" si="6"/>
+      <c r="G71" s="12">
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="12">
         <v>7</v>
       </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17">
+      <c r="I71" s="12"/>
+      <c r="J71" s="12">
         <v>5</v>
       </c>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="S71" s="25"/>
-      <c r="T71" s="25"/>
-      <c r="U71" s="25"/>
-      <c r="V71" s="25"/>
-      <c r="W71" s="25"/>
-      <c r="X71" s="25"/>
-      <c r="AI71" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="AI71" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK71" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="72" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F72" s="17">
+      <c r="F72" s="12">
         <v>2020</v>
       </c>
-      <c r="G72" s="17">
-        <f t="shared" si="6"/>
+      <c r="G72" s="12">
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H72" s="12">
         <v>5</v>
       </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17">
+      <c r="I72" s="12"/>
+      <c r="J72" s="12">
         <v>3</v>
       </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="S72" s="25"/>
-      <c r="T72" s="25"/>
-      <c r="U72" s="25"/>
-      <c r="V72" s="25"/>
-      <c r="W72" s="25"/>
-      <c r="X72" s="25"/>
-      <c r="AI72" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="AI72" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK72" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="73" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F73" s="17">
+      <c r="F73" s="12">
         <v>2021</v>
       </c>
-      <c r="G73" s="17">
-        <f t="shared" si="6"/>
+      <c r="G73" s="12">
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="12">
         <v>9</v>
       </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17">
+      <c r="I73" s="12"/>
+      <c r="J73" s="12">
         <v>2</v>
       </c>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17">
+      <c r="K73" s="12"/>
+      <c r="L73" s="12">
         <v>1</v>
       </c>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="S73" s="25"/>
-      <c r="T73" s="25"/>
-      <c r="U73" s="25"/>
-      <c r="V73" s="25"/>
-      <c r="W73" s="25"/>
-      <c r="X73" s="25"/>
-      <c r="AI73" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="AI73" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK73" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="74" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F74" s="17">
+      <c r="F74" s="12">
         <v>2022</v>
       </c>
-      <c r="G74" s="17">
-        <f t="shared" si="6"/>
+      <c r="G74" s="12">
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="12">
         <v>14</v>
       </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17">
+      <c r="I74" s="12"/>
+      <c r="J74" s="12">
         <v>5</v>
       </c>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="S74" s="25"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="25"/>
-      <c r="V74" s="25"/>
-      <c r="W74" s="25"/>
-      <c r="X74" s="25"/>
-      <c r="AI74" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="AI74" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK74" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="75" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F75" s="17">
+      <c r="F75" s="12">
         <v>2023</v>
       </c>
-      <c r="G75" s="17">
-        <f t="shared" si="6"/>
+      <c r="G75" s="12">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="12">
         <v>2</v>
       </c>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17">
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12">
         <v>1</v>
       </c>
-      <c r="O75" s="17"/>
-      <c r="S75" s="25"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="25"/>
-      <c r="V75" s="25"/>
-      <c r="W75" s="25"/>
-      <c r="X75" s="25"/>
-      <c r="AI75" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="O75" s="12"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="AI75" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK75" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="76" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
-      <c r="U76" s="25"/>
-      <c r="V76" s="25"/>
-      <c r="W76" s="25"/>
-      <c r="X76" s="25"/>
-      <c r="AI76" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="21"/>
+      <c r="X76" s="21"/>
+      <c r="AI76" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK76" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="77" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="S77" s="25"/>
-      <c r="T77" s="25"/>
-      <c r="U77" s="25"/>
-      <c r="V77" s="25"/>
-      <c r="W77" s="25"/>
-      <c r="X77" s="25"/>
-      <c r="AI77" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="21"/>
+      <c r="X77" s="21"/>
+      <c r="AI77" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK77" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
@@ -5488,39 +5436,39 @@
       <c r="F78" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="AI78" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="AI78" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK78" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="79" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="AI79" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="AI79" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK79" s="2" t="str">
@@ -5529,364 +5477,364 @@
       </c>
     </row>
     <row r="80" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="15" t="s">
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15" t="s">
+      <c r="I80" s="39"/>
+      <c r="J80" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15" t="s">
+      <c r="K80" s="39"/>
+      <c r="L80" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15" t="s">
+      <c r="M80" s="39"/>
+      <c r="N80" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="O80" s="15"/>
-      <c r="AI80" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="O80" s="39"/>
+      <c r="AI80" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK80" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="81" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H81" s="17" t="s">
+      <c r="H81" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I81" s="17" t="s">
+      <c r="I81" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J81" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K81" s="17" t="s">
+      <c r="K81" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L81" s="17" t="s">
+      <c r="L81" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="M81" s="17" t="s">
+      <c r="M81" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N81" s="17" t="s">
+      <c r="N81" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O81" s="17" t="s">
+      <c r="O81" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AI81" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI81" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK81" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="82" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F82" s="17">
+      <c r="F82" s="12">
         <v>2014</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="12">
         <f>SUM(H82+J82+L82+N82)</f>
         <v>2</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="12">
         <v>2</v>
       </c>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="AI82" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="AI82" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK82" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="83" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F83" s="17">
+      <c r="F83" s="12">
         <v>2015</v>
       </c>
-      <c r="G83" s="17">
-        <f t="shared" ref="G82:G91" si="7">SUM(H83+J83+L83+N83)</f>
+      <c r="G83" s="12">
+        <f t="shared" ref="G83:G91" si="16">SUM(H83+J83+L83+N83)</f>
         <v>4</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H83" s="12">
         <v>4</v>
       </c>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="AI83" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="AI83" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK83" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="84" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F84" s="17">
+      <c r="F84" s="12">
         <v>2016</v>
       </c>
-      <c r="G84" s="17">
-        <f t="shared" si="7"/>
+      <c r="G84" s="12">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H84" s="12">
         <v>3</v>
       </c>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="AI84" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="AI84" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK84" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="85" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F85" s="17">
+      <c r="F85" s="12">
         <v>2017</v>
       </c>
-      <c r="G85" s="17">
-        <f t="shared" si="7"/>
+      <c r="G85" s="12">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="12">
         <v>6</v>
       </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="AI85" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="AI85" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK85" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="86" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F86" s="17">
+      <c r="F86" s="12">
         <v>2018</v>
       </c>
-      <c r="G86" s="17">
-        <f t="shared" si="7"/>
+      <c r="G86" s="12">
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H86" s="12">
         <v>14</v>
       </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="AI86" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="AI86" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK86" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="87" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F87" s="17">
+      <c r="F87" s="12">
         <v>2019</v>
       </c>
-      <c r="G87" s="17">
-        <f t="shared" si="7"/>
+      <c r="G87" s="12">
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="12">
         <v>27</v>
       </c>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="AI87" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="AI87" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK87" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="88" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F88" s="17">
+      <c r="F88" s="12">
         <v>2020</v>
       </c>
-      <c r="G88" s="17">
-        <f t="shared" si="7"/>
+      <c r="G88" s="12">
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="12">
         <v>47</v>
       </c>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="AI88" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="AI88" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK88" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="89" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F89" s="17">
+      <c r="F89" s="12">
         <v>2021</v>
       </c>
-      <c r="G89" s="17">
-        <f t="shared" si="7"/>
+      <c r="G89" s="12">
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H89" s="12">
         <v>69</v>
       </c>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="AI89" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="AI89" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK89" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="90" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F90" s="17">
+      <c r="F90" s="12">
         <v>2022</v>
       </c>
-      <c r="G90" s="17">
-        <f t="shared" si="7"/>
+      <c r="G90" s="12">
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H90" s="12">
         <v>63</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="12">
         <v>2</v>
       </c>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="AI90" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="AI90" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK90" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="91" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F91" s="17">
+      <c r="F91" s="12">
         <v>2023</v>
       </c>
-      <c r="G91" s="17">
-        <f t="shared" si="7"/>
+      <c r="G91" s="12">
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H91" s="12">
         <v>20</v>
       </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="AI91" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="AI91" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK91" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="92" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="AI92" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI92" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
       <c r="AK92" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> &amp;  &amp; ~\cite[]{} &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\\hline</v>
       </c>
     </row>
     <row r="93" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="AI93" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI93" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="94" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="AI94" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI94" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
@@ -5894,600 +5842,592 @@
       <c r="F95" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="AI95" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="AI95" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="96" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="AI96" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="AI96" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="97" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="15" t="s">
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15" t="s">
+      <c r="I97" s="39"/>
+      <c r="J97" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15" t="s">
+      <c r="K97" s="39"/>
+      <c r="L97" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15" t="s">
+      <c r="M97" s="39"/>
+      <c r="N97" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="O97" s="15"/>
-      <c r="AI97" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="O97" s="39"/>
+      <c r="AI97" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="98" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G98" s="18" t="s">
+      <c r="G98" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H98" s="17" t="s">
+      <c r="H98" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I98" s="17" t="s">
+      <c r="I98" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J98" s="17" t="s">
+      <c r="J98" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K98" s="17" t="s">
+      <c r="K98" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L98" s="17" t="s">
+      <c r="L98" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="M98" s="17" t="s">
+      <c r="M98" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N98" s="17" t="s">
+      <c r="N98" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O98" s="17" t="s">
+      <c r="O98" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AI98" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI98" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="99" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F99" s="17">
+      <c r="F99" s="12">
         <v>2014</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="12">
         <f>SUM(H99+J99+L99+N99)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="AI99" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="AI99" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="100" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F100" s="17">
+      <c r="F100" s="12">
         <v>2015</v>
       </c>
-      <c r="G100" s="17">
-        <f t="shared" ref="G100:G108" si="8">SUM(H100+J100+L100+N100)</f>
+      <c r="G100" s="12">
+        <f t="shared" ref="G100:G108" si="17">SUM(H100+J100+L100+N100)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="AI100" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="AI100" s="11" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="101" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F101" s="17">
+      <c r="F101" s="12">
         <v>2016</v>
       </c>
-      <c r="G101" s="17">
-        <f t="shared" si="8"/>
+      <c r="G101" s="12">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="AI101" s="14" t="str">
-        <f t="shared" ref="AI101:AI107" si="9">IF(AA101="y"," $^{\ast}$ &amp; "," &amp; ")</f>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="AI101" s="11" t="str">
+        <f t="shared" ref="AI101:AI107" si="18">IF(AA101="y"," $^{\ast}$ &amp; "," &amp; ")</f>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="102" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F102" s="17">
+      <c r="F102" s="12">
         <v>2017</v>
       </c>
-      <c r="G102" s="17">
-        <f t="shared" si="8"/>
+      <c r="G102" s="12">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="AI102" s="14" t="str">
-        <f t="shared" si="9"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="AI102" s="11" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="103" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F103" s="17">
+      <c r="F103" s="12">
         <v>2018</v>
       </c>
-      <c r="G103" s="17">
-        <f t="shared" si="8"/>
+      <c r="G103" s="12">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="AI103" s="14" t="str">
-        <f t="shared" si="9"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="AI103" s="11" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="104" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F104" s="17">
+      <c r="F104" s="12">
         <v>2019</v>
       </c>
-      <c r="G104" s="17">
-        <f t="shared" si="8"/>
+      <c r="G104" s="12">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="AI104" s="14" t="str">
-        <f t="shared" si="9"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="AI104" s="11" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="105" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F105" s="17">
+      <c r="F105" s="12">
         <v>2020</v>
       </c>
-      <c r="G105" s="17">
-        <f t="shared" si="8"/>
+      <c r="G105" s="12">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="AI105" s="14" t="str">
-        <f t="shared" si="9"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="AI105" s="11" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="106" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F106" s="17">
+      <c r="F106" s="12">
         <v>2021</v>
       </c>
-      <c r="G106" s="17">
-        <f t="shared" si="8"/>
+      <c r="G106" s="12">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="H106" s="17">
+      <c r="H106" s="12">
         <v>2</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="12">
         <v>2</v>
       </c>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="AI106" s="14" t="str">
-        <f t="shared" si="9"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="AI106" s="11" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="107" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F107" s="17">
+      <c r="F107" s="12">
         <v>2022</v>
       </c>
-      <c r="G107" s="17">
-        <f t="shared" si="8"/>
+      <c r="G107" s="12">
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="H107" s="17">
+      <c r="H107" s="12">
         <v>3</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="12">
         <v>2</v>
       </c>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17">
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12">
         <v>1</v>
       </c>
-      <c r="AI107" s="14" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI107" s="11" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> &amp; </v>
       </c>
     </row>
     <row r="108" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F108" s="17">
+      <c r="F108" s="12">
         <v>2023</v>
       </c>
-      <c r="G108" s="17">
-        <f t="shared" si="8"/>
+      <c r="G108" s="12">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
     </row>
     <row r="110" spans="6:35" x14ac:dyDescent="0.3">
       <c r="F110" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
     </row>
     <row r="111" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F111" s="21" t="s">
+      <c r="F111" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
     </row>
     <row r="112" spans="6:35" x14ac:dyDescent="0.3">
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="15" t="s">
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15" t="s">
+      <c r="I112" s="39"/>
+      <c r="J112" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15" t="s">
+      <c r="K112" s="39"/>
+      <c r="L112" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M112" s="15"/>
-      <c r="N112" s="15" t="s">
+      <c r="M112" s="39"/>
+      <c r="N112" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="O112" s="15"/>
+      <c r="O112" s="39"/>
     </row>
     <row r="113" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F113" s="17" t="s">
+      <c r="F113" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G113" s="18" t="s">
+      <c r="G113" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H113" s="17" t="s">
+      <c r="H113" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I113" s="17" t="s">
+      <c r="I113" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J113" s="17" t="s">
+      <c r="J113" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K113" s="17" t="s">
+      <c r="K113" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L113" s="17" t="s">
+      <c r="L113" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="M113" s="17" t="s">
+      <c r="M113" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N113" s="17" t="s">
+      <c r="N113" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O113" s="17" t="s">
+      <c r="O113" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F114" s="17">
+      <c r="F114" s="12">
         <v>2014</v>
       </c>
-      <c r="G114" s="17">
+      <c r="G114" s="12">
         <f>SUM(H114+J114+L114+N114)</f>
         <v>0</v>
       </c>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
     </row>
     <row r="115" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F115" s="17">
+      <c r="F115" s="12">
         <v>2015</v>
       </c>
-      <c r="G115" s="17">
-        <f t="shared" ref="G115:G123" si="10">SUM(H115+J115+L115+N115)</f>
+      <c r="G115" s="12">
+        <f t="shared" ref="G115:G123" si="19">SUM(H115+J115+L115+N115)</f>
         <v>0</v>
       </c>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
     </row>
     <row r="116" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F116" s="17">
+      <c r="F116" s="12">
         <v>2016</v>
       </c>
-      <c r="G116" s="17">
-        <f t="shared" si="10"/>
+      <c r="G116" s="12">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H116" s="17">
+      <c r="H116" s="12">
         <v>1</v>
       </c>
-      <c r="I116" s="17">
+      <c r="I116" s="12">
         <v>1</v>
       </c>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
     </row>
     <row r="117" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F117" s="17">
+      <c r="F117" s="12">
         <v>2017</v>
       </c>
-      <c r="G117" s="17">
-        <f t="shared" si="10"/>
+      <c r="G117" s="12">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17">
+      <c r="H117" s="12"/>
+      <c r="I117" s="12">
         <v>1</v>
       </c>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
     </row>
     <row r="118" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F118" s="17">
+      <c r="F118" s="12">
         <v>2018</v>
       </c>
-      <c r="G118" s="17">
-        <f t="shared" si="10"/>
+      <c r="G118" s="12">
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="H118" s="17">
+      <c r="H118" s="12">
         <v>3</v>
       </c>
-      <c r="I118" s="17">
+      <c r="I118" s="12">
         <v>1</v>
       </c>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
     </row>
     <row r="119" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F119" s="17">
+      <c r="F119" s="12">
         <v>2019</v>
       </c>
-      <c r="G119" s="17">
-        <f t="shared" si="10"/>
+      <c r="G119" s="12">
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="H119" s="17">
+      <c r="H119" s="12">
         <v>3</v>
       </c>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
     </row>
     <row r="120" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F120" s="17">
+      <c r="F120" s="12">
         <v>2020</v>
       </c>
-      <c r="G120" s="17">
-        <f t="shared" si="10"/>
+      <c r="G120" s="12">
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="H120" s="17">
+      <c r="H120" s="12">
         <v>8</v>
       </c>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
     </row>
     <row r="121" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F121" s="17">
+      <c r="F121" s="12">
         <v>2021</v>
       </c>
-      <c r="G121" s="17">
-        <f t="shared" si="10"/>
+      <c r="G121" s="12">
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
-      <c r="H121" s="17">
+      <c r="H121" s="12">
         <v>31</v>
       </c>
-      <c r="I121" s="17">
+      <c r="I121" s="12">
         <v>1</v>
       </c>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
     </row>
     <row r="122" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F122" s="17">
+      <c r="F122" s="12">
         <v>2022</v>
       </c>
-      <c r="G122" s="17">
-        <f t="shared" si="10"/>
+      <c r="G122" s="12">
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
-      <c r="H122" s="17">
+      <c r="H122" s="12">
         <v>24</v>
       </c>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
     </row>
     <row r="123" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F123" s="17">
+      <c r="F123" s="12">
         <v>2023</v>
       </c>
-      <c r="G123" s="17">
-        <f t="shared" si="10"/>
+      <c r="G123" s="12">
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
-      <c r="H123" s="17">
+      <c r="H123" s="12">
         <v>24</v>
       </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="H64:I64"/>
@@ -6504,10 +6444,18 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F33" r:id="rId1" xr:uid="{62024993-0124-44E3-B263-5C8134F4ED60}"/>
